--- a/data/Excel Workbooks/Calvin2011/IranDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin2011/IranDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="21840" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="280" windowWidth="21840" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Iran Workbook" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Employment calcs" sheetId="2" r:id="rId4"/>
     <sheet name="Exergy calcs" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="128">
   <si>
     <t>Notes</t>
   </si>
@@ -927,6 +927,21 @@
   <si>
     <t>- Renewable electricity generation for 2011 was assumed to be the same as 2010 since no data was available for 2011 from the EIA.</t>
   </si>
+  <si>
+    <t>iL</t>
+  </si>
+  <si>
+    <t>iK</t>
+  </si>
+  <si>
+    <t>Excluding humans</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Calvin2011</t>
+  </si>
 </sst>
 </file>
 
@@ -940,7 +955,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1820,12 +1835,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1834,18 +1849,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,11 +1869,11 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1894,7 +1909,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="483">
+  <cellStyleXfs count="493">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2384,6 +2399,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2501,9 +2526,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2526,7 +2548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2604,22 +2625,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2628,17 +2652,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="483">
+  <cellStyles count="493">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="42"/>
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="54"/>
@@ -2952,8 +2979,13 @@
     <cellStyle name="Explanatory Text 7" xfId="328"/>
     <cellStyle name="Explanatory Text 8" xfId="329"/>
     <cellStyle name="Explanatory Text 9" xfId="330"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
     <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 10" xfId="331"/>
     <cellStyle name="Good 11" xfId="332"/>
@@ -3028,6 +3060,11 @@
     <cellStyle name="Heading 4 8" xfId="379"/>
     <cellStyle name="Heading 4 9" xfId="380"/>
     <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Input 10" xfId="381"/>
     <cellStyle name="Input 11" xfId="382"/>
@@ -3167,8 +3204,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34038733085619899"/>
-          <c:y val="1.480716056309E-2"/>
+          <c:x val="0.340387330856199"/>
+          <c:y val="0.01480716056309"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3180,10 +3217,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1362610952589597E-2"/>
-          <c:y val="8.4942300293992704E-2"/>
-          <c:w val="0.90065900826488199"/>
-          <c:h val="0.83168968505229501"/>
+          <c:x val="0.0713626109525896"/>
+          <c:y val="0.0849423002939927"/>
+          <c:w val="0.900659008264882"/>
+          <c:h val="0.831689685052295"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3212,67 +3249,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,61 +3321,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0425075890787252</c:v>
+                  <c:v>1.042507589078725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0260784365185593</c:v>
+                  <c:v>1.02607843651856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0224829191052323</c:v>
+                  <c:v>1.022482919105232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0496023935123218</c:v>
+                  <c:v>1.049602393512322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1241372070440647</c:v>
+                  <c:v>1.124137207044065</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1621832051719463</c:v>
+                  <c:v>1.162183205171946</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1940354652739504</c:v>
+                  <c:v>1.19403546527395</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2171307596077299</c:v>
+                  <c:v>1.21713075960773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2797242561828028</c:v>
+                  <c:v>1.279724256182803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3266846879948211</c:v>
+                  <c:v>1.326684687994821</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4263968716374038</c:v>
+                  <c:v>1.426396871637404</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5278761952252229</c:v>
+                  <c:v>1.527876195225223</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6055603670752083</c:v>
+                  <c:v>1.605560367075208</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6797889929926777</c:v>
+                  <c:v>1.679788992992678</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7787925710136561</c:v>
+                  <c:v>1.778792571013656</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9179767122448801</c:v>
+                  <c:v>1.91797671224488</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9620939733529292</c:v>
+                  <c:v>1.962093973352929</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9974105276050005</c:v>
+                  <c:v>1.997410527605</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2.055533685011679</c:v>
@@ -3376,139 +3413,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Iran Workbook'!$J$12:$J$32</c:f>
+              <c:f>'Iran Workbook'!$I$12:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0286817340947478</c:v>
+                  <c:v>1.028681734094748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0451808359473445</c:v>
+                  <c:v>1.045180835947344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0479449851202445</c:v>
+                  <c:v>1.047944985120244</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0470682860130298</c:v>
+                  <c:v>1.04706828601303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0643931472693637</c:v>
+                  <c:v>1.064393147269364</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.09182283707338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1206413040564089</c:v>
+                  <c:v>1.120641304056409</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1535537145767982</c:v>
+                  <c:v>1.153553714576798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1887396444944904</c:v>
+                  <c:v>1.18873964449449</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2378857342019893</c:v>
+                  <c:v>1.237885734201989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2994879219282018</c:v>
+                  <c:v>1.299487921928202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3727713879728678</c:v>
+                  <c:v>1.372771387972868</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4523552910265691</c:v>
+                  <c:v>1.45235529102657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5352797662135713</c:v>
+                  <c:v>1.535279766213571</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.618542052065739</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7074130673744605</c:v>
+                  <c:v>1.70741306737446</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8001715863696077</c:v>
+                  <c:v>1.800171586369608</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8938657872865223</c:v>
+                  <c:v>1.893865787286522</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9875921606477385</c:v>
+                  <c:v>1.987592160647738</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0860746936915198</c:v>
+                  <c:v>2.08607469369152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3538,139 +3575,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Iran Workbook'!$I$12:$I$32</c:f>
+              <c:f>'Iran Workbook'!$J$12:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99232068769283399</c:v>
+                  <c:v>0.992320683779981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0258154760071143</c:v>
+                  <c:v>1.025815481858531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0326056645162756</c:v>
+                  <c:v>1.032605646378779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0676674443527505</c:v>
+                  <c:v>1.06766744697657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0762276118011567</c:v>
+                  <c:v>1.076227641099988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1451202765298232</c:v>
+                  <c:v>1.145120321481486</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2057762242070602</c:v>
+                  <c:v>1.205776261479054</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2474506596280401</c:v>
+                  <c:v>1.247450645080479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3427875425389963</c:v>
+                  <c:v>1.342787542602126</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4046770603141765</c:v>
+                  <c:v>1.404677104038161</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4662256175957016</c:v>
+                  <c:v>1.466225624212456</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5669526919341685</c:v>
+                  <c:v>1.566952735441511</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7123166506427665</c:v>
+                  <c:v>1.712316650888529</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7569037609417837</c:v>
+                  <c:v>1.756903756993125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7594397255454477</c:v>
+                  <c:v>1.759439775882434</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8044560764088737</c:v>
+                  <c:v>1.804456105369083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7369485738188386</c:v>
+                  <c:v>1.736948575934225</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7804433297070139</c:v>
+                  <c:v>1.78044330720689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8469810485629561</c:v>
+                  <c:v>1.846981066778167</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8675789210862097</c:v>
+                  <c:v>1.867578976109897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3702,67 +3739,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3774,67 +3811,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0351477264441471</c:v>
+                  <c:v>1.03524126970604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0664991895513447</c:v>
+                  <c:v>1.066561646982146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1371924779554503</c:v>
+                  <c:v>1.137394338461149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.179149087052298</c:v>
+                  <c:v>1.179337623182914</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2204229295084879</c:v>
+                  <c:v>1.22068247844607</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3640537191250275</c:v>
+                  <c:v>1.364472965225885</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4133212694985073</c:v>
+                  <c:v>1.413703650841744</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4896945558019052</c:v>
+                  <c:v>1.490150274972769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5490435507138622</c:v>
+                  <c:v>1.549405180510527</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6546666155646617</c:v>
+                  <c:v>1.655119672166152</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8078514341786631</c:v>
+                  <c:v>1.808500569929673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9033636908722122</c:v>
+                  <c:v>1.904000531215662</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9772245577257619</c:v>
+                  <c:v>1.977696133530484</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2563568498671258</c:v>
+                  <c:v>2.257337934463673</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3603968679979945</c:v>
+                  <c:v>2.361605969805966</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4170610401815762</c:v>
+                  <c:v>2.418292934837758</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5051898221084539</c:v>
+                  <c:v>2.506765630912038</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7667340690155244</c:v>
+                  <c:v>2.768783584820899</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7852540327935258</c:v>
+                  <c:v>2.787194752962454</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0822590377981136</c:v>
+                  <c:v>3.084802277298651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3868,67 +3905,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3940,67 +3977,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0350887801210376</c:v>
+                  <c:v>1.03577726673788</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0665900041362124</c:v>
+                  <c:v>1.06705179183722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1369651953432378</c:v>
+                  <c:v>1.138449295276753</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1797189806042392</c:v>
+                  <c:v>1.181117709852095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2218098587699431</c:v>
+                  <c:v>1.22374512163223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3651976749692314</c:v>
+                  <c:v>1.368306031556511</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4156593616624082</c:v>
+                  <c:v>1.418515239801653</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4930924441439997</c:v>
+                  <c:v>1.496505899830323</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5533641508547886</c:v>
+                  <c:v>1.55609899996368</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6601333947971149</c:v>
+                  <c:v>1.663560532015639</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8141182902068866</c:v>
+                  <c:v>1.819003455993696</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9103783137711257</c:v>
+                  <c:v>1.915184897204137</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9853788836602095</c:v>
+                  <c:v>1.988985776194522</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2660322074050629</c:v>
+                  <c:v>2.273418783717293</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3692211778245698</c:v>
+                  <c:v>2.37827459360484</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4265382700477449</c:v>
+                  <c:v>2.435770185202778</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5111489570806875</c:v>
+                  <c:v>2.522858964523338</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7749953290954816</c:v>
+                  <c:v>2.790233726966464</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7954868154686792</c:v>
+                  <c:v>2.809955102096009</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0885054378839611</c:v>
+                  <c:v>3.107350258445606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4015,11 +4052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161033600"/>
-        <c:axId val="161040256"/>
+        <c:axId val="-2109192088"/>
+        <c:axId val="-2108894984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161033600"/>
+        <c:axId val="-2109192088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4052,15 +4089,15 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161040256"/>
+        <c:crossAx val="-2108894984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161040256"/>
+        <c:axId val="-2108894984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3"/>
+          <c:max val="3.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4091,10 +4128,10 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161033600"/>
+        <c:crossAx val="-2109192088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4775,36 +4812,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD35"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="65" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" style="65" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="63"/>
+    <col min="2" max="2" width="23.33203125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="63" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="63" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="59" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="63" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="63" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="12" customFormat="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:56" s="12" customFormat="1" ht="14" customHeight="1">
+      <c r="A1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="63"/>
-      <c r="G1" s="65"/>
-      <c r="K1" s="65"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="61"/>
+      <c r="G1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:56">
       <c r="A2" s="4" t="s">
@@ -4813,8 +4851,6 @@
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4822,12 +4858,9 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:56">
-      <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4835,12 +4868,9 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:56">
-      <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4848,12 +4878,9 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:56">
-      <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4861,19 +4888,18 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:56">
-      <c r="A6" s="6"/>
       <c r="B6" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="62"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="62"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="62"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -4920,130 +4946,130 @@
       <c r="BC6" s="6"/>
       <c r="BD6" s="6"/>
     </row>
-    <row r="7" spans="1:56" s="65" customFormat="1">
+    <row r="7" spans="1:56" s="63" customFormat="1">
       <c r="B7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="62"/>
-      <c r="AW7" s="62"/>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="62"/>
-      <c r="BA7" s="62"/>
-      <c r="BB7" s="62"/>
-    </row>
-    <row r="8" spans="1:56" s="65" customFormat="1">
-      <c r="B8" s="62"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="62"/>
-      <c r="BB8" s="62"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="60"/>
+      <c r="BB7" s="60"/>
+    </row>
+    <row r="8" spans="1:56" s="63" customFormat="1">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60"/>
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="60"/>
+      <c r="AS8" s="60"/>
+      <c r="AT8" s="60"/>
+      <c r="AU8" s="60"/>
+      <c r="AV8" s="60"/>
+      <c r="AW8" s="60"/>
+      <c r="AX8" s="60"/>
+      <c r="AY8" s="60"/>
+      <c r="AZ8" s="60"/>
+      <c r="BA8" s="60"/>
+      <c r="BB8" s="60"/>
     </row>
     <row r="9" spans="1:56">
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="63" t="s">
         <v>99</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>103</v>
@@ -5054,30 +5080,15 @@
     </row>
     <row r="10" spans="1:56" ht="15" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="66"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="93" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="93" t="s">
         <v>31</v>
-      </c>
-      <c r="J10" s="93" t="s">
-        <v>32</v>
       </c>
       <c r="K10" s="93" t="s">
         <v>90</v>
@@ -5100,16 +5111,26 @@
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
     </row>
-    <row r="11" spans="1:56" ht="15" customHeight="1">
+    <row r="11" spans="1:56" ht="28">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="64"/>
       <c r="H11" s="93"/>
       <c r="I11" s="93"/>
       <c r="J11" s="93"/>
@@ -5131,25 +5152,28 @@
       <c r="AA11" s="14"/>
     </row>
     <row r="12" spans="1:56" ht="15" customHeight="1">
-      <c r="A12" s="1">
+      <c r="A12" s="63">
         <v>1991</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="65">
         <v>114309</v>
       </c>
-      <c r="C12" s="70">
-        <v>12335740</v>
-      </c>
-      <c r="D12" s="67">
+      <c r="C12" s="65">
         <v>372990</v>
       </c>
-      <c r="E12" s="67">
-        <v>3531557.3632675242</v>
-      </c>
-      <c r="F12" s="67">
-        <v>3696764.7773871496</v>
-      </c>
-      <c r="G12" s="67">
+      <c r="D12" s="68">
+        <f>'Employment calcs'!F7</f>
+        <v>12335739.900000002</v>
+      </c>
+      <c r="E12" s="65">
+        <f>'Exergy calcs'!AO32</f>
+        <v>3475606.5770868426</v>
+      </c>
+      <c r="F12" s="65">
+        <f>'Exergy calcs'!AD32</f>
+        <v>3688707.8641771316</v>
+      </c>
+      <c r="G12" s="65">
         <f>A12-$A$12</f>
         <v>0</v>
       </c>
@@ -5165,7 +5189,7 @@
         <f>D12/$D$12</f>
         <v>1</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="62">
         <f t="shared" ref="K12:K32" si="0">E12/$E$12</f>
         <v>1</v>
       </c>
@@ -5189,47 +5213,50 @@
       <c r="AA12" s="14"/>
     </row>
     <row r="13" spans="1:56" ht="15" customHeight="1">
-      <c r="A13" s="1">
+      <c r="A13" s="63">
         <v>1992</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="65">
         <v>119168</v>
       </c>
-      <c r="C13" s="70">
-        <v>12241010</v>
-      </c>
-      <c r="D13" s="67">
+      <c r="C13" s="65">
         <v>383688</v>
       </c>
-      <c r="E13" s="67">
-        <v>3655475.4030720498</v>
-      </c>
-      <c r="F13" s="67">
-        <v>3826697.6545111118</v>
-      </c>
-      <c r="G13" s="67">
-        <f t="shared" ref="G13:G32" si="1">A13-$A$12</f>
+      <c r="D13" s="68">
+        <f>'Employment calcs'!F8</f>
+        <v>12241009.852500003</v>
+      </c>
+      <c r="E13" s="65">
+        <f>'Exergy calcs'!AO33</f>
+        <v>3599954.2806712086</v>
+      </c>
+      <c r="F13" s="65">
+        <f>'Exergy calcs'!AD33</f>
+        <v>3818702.6128853904</v>
+      </c>
+      <c r="G13" s="65">
+        <f>A13-$A$12</f>
         <v>1</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" ref="H13:H32" si="2">B13/$B$12</f>
+        <f>B13/$B$12</f>
         <v>1.0425075890787252</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" ref="I13:I32" si="3">C13/$C$12</f>
-        <v>0.99232068769283399</v>
+        <f>C13/$C$12</f>
+        <v>1.0286817340947478</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" ref="J13:J32" si="4">D13/$D$12</f>
-        <v>1.0286817340947478</v>
-      </c>
-      <c r="K13" s="64">
+        <f>D13/$D$12</f>
+        <v>0.9923206837799815</v>
+      </c>
+      <c r="K13" s="62">
         <f t="shared" si="0"/>
-        <v>1.0350887801210376</v>
+        <v>1.03577726673788</v>
       </c>
       <c r="L13" s="17">
-        <f t="shared" ref="L13:L32" si="5">F13/$F$12</f>
-        <v>1.0351477264441471</v>
+        <f t="shared" ref="L13:L32" si="1">F13/$F$12</f>
+        <v>1.0352412697060405</v>
       </c>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
@@ -5247,47 +5274,50 @@
       <c r="AA13" s="14"/>
     </row>
     <row r="14" spans="1:56" ht="15" customHeight="1">
-      <c r="A14" s="1">
+      <c r="A14" s="63">
         <v>1993</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="65">
         <v>117290</v>
       </c>
-      <c r="C14" s="70">
-        <v>12654193</v>
-      </c>
-      <c r="D14" s="67">
+      <c r="C14" s="65">
         <v>389842</v>
       </c>
-      <c r="E14" s="67">
-        <v>3766723.7826947798</v>
-      </c>
-      <c r="F14" s="67">
-        <v>3942596.6390453526</v>
-      </c>
-      <c r="G14" s="67">
+      <c r="D14" s="68">
+        <f>'Employment calcs'!F9</f>
+        <v>12654192.969600003</v>
+      </c>
+      <c r="E14" s="65">
+        <f>'Exergy calcs'!AO34</f>
+        <v>3708652.2258017394</v>
+      </c>
+      <c r="F14" s="65">
+        <f>'Exergy calcs'!AD34</f>
+        <v>3934234.3348527546</v>
+      </c>
+      <c r="G14" s="65">
+        <f>A14-$A$12</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="7">
+        <f>B14/$B$12</f>
+        <v>1.0260784365185593</v>
+      </c>
+      <c r="I14" s="7">
+        <f>C14/$C$12</f>
+        <v>1.0451808359473445</v>
+      </c>
+      <c r="J14" s="7">
+        <f>D14/$D$12</f>
+        <v>1.0258154818585306</v>
+      </c>
+      <c r="K14" s="62">
+        <f t="shared" si="0"/>
+        <v>1.0670517918372191</v>
+      </c>
+      <c r="L14" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0260784365185593</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="3"/>
-        <v>1.0258154760071143</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="4"/>
-        <v>1.0451808359473445</v>
-      </c>
-      <c r="K14" s="64">
-        <f t="shared" si="0"/>
-        <v>1.0665900041362124</v>
-      </c>
-      <c r="L14" s="17">
-        <f t="shared" si="5"/>
-        <v>1.0664991895513447</v>
+        <v>1.0665616469821457</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
@@ -5305,47 +5335,50 @@
       <c r="AA14" s="14"/>
     </row>
     <row r="15" spans="1:56" ht="15" customHeight="1">
-      <c r="A15" s="1">
+      <c r="A15" s="63">
         <v>1994</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="65">
         <v>116879</v>
       </c>
-      <c r="C15" s="70">
-        <v>12737955</v>
-      </c>
-      <c r="D15" s="67">
+      <c r="C15" s="65">
         <v>390873</v>
       </c>
-      <c r="E15" s="67">
-        <v>4015257.8073933106</v>
-      </c>
-      <c r="F15" s="67">
-        <v>4203933.0976153212</v>
-      </c>
-      <c r="G15" s="67">
+      <c r="D15" s="68">
+        <f>'Employment calcs'!F10</f>
+        <v>12737954.673000002</v>
+      </c>
+      <c r="E15" s="65">
+        <f>'Exergy calcs'!AO35</f>
+        <v>3956801.8583437623</v>
+      </c>
+      <c r="F15" s="65">
+        <f>'Exergy calcs'!AD35</f>
+        <v>4195515.4409521865</v>
+      </c>
+      <c r="G15" s="65">
+        <f>A15-$A$12</f>
+        <v>3</v>
+      </c>
+      <c r="H15" s="7">
+        <f>B15/$B$12</f>
+        <v>1.0224829191052323</v>
+      </c>
+      <c r="I15" s="7">
+        <f>C15/$C$12</f>
+        <v>1.0479449851202445</v>
+      </c>
+      <c r="J15" s="7">
+        <f>D15/$D$12</f>
+        <v>1.0326056463787794</v>
+      </c>
+      <c r="K15" s="62">
+        <f t="shared" si="0"/>
+        <v>1.1384492952767526</v>
+      </c>
+      <c r="L15" s="17">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0224829191052323</v>
-      </c>
-      <c r="I15" s="7">
-        <f t="shared" si="3"/>
-        <v>1.0326056645162756</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="4"/>
-        <v>1.0479449851202445</v>
-      </c>
-      <c r="K15" s="64">
-        <f t="shared" si="0"/>
-        <v>1.1369651953432378</v>
-      </c>
-      <c r="L15" s="17">
-        <f t="shared" si="5"/>
-        <v>1.1371924779554503</v>
+        <v>1.1373943384611491</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -5363,47 +5396,50 @@
       <c r="AA15" s="14"/>
     </row>
     <row r="16" spans="1:56" ht="15" customHeight="1">
-      <c r="A16" s="1">
+      <c r="A16" s="63">
         <v>1995</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="65">
         <v>119979</v>
       </c>
-      <c r="C16" s="70">
-        <v>13170468</v>
-      </c>
-      <c r="D16" s="67">
+      <c r="C16" s="65">
         <v>390546</v>
       </c>
-      <c r="E16" s="67">
-        <v>4166245.2525393581</v>
-      </c>
-      <c r="F16" s="67">
-        <v>4359036.8123031491</v>
-      </c>
-      <c r="G16" s="67">
+      <c r="D16" s="68">
+        <f>'Employment calcs'!F11</f>
+        <v>13170467.925600002</v>
+      </c>
+      <c r="E16" s="65">
+        <f>'Exergy calcs'!AO36</f>
+        <v>4105100.4806756899</v>
+      </c>
+      <c r="F16" s="65">
+        <f>'Exergy calcs'!AD36</f>
+        <v>4350231.965154781</v>
+      </c>
+      <c r="G16" s="65">
+        <f>A16-$A$12</f>
+        <v>4</v>
+      </c>
+      <c r="H16" s="7">
+        <f>B16/$B$12</f>
+        <v>1.0496023935123218</v>
+      </c>
+      <c r="I16" s="7">
+        <f>C16/$C$12</f>
+        <v>1.0470682860130298</v>
+      </c>
+      <c r="J16" s="7">
+        <f>D16/$D$12</f>
+        <v>1.0676674469765692</v>
+      </c>
+      <c r="K16" s="62">
+        <f t="shared" si="0"/>
+        <v>1.1811177098520949</v>
+      </c>
+      <c r="L16" s="17">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0496023935123218</v>
-      </c>
-      <c r="I16" s="7">
-        <f t="shared" si="3"/>
-        <v>1.0676674443527505</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="4"/>
-        <v>1.0470682860130298</v>
-      </c>
-      <c r="K16" s="64">
-        <f t="shared" si="0"/>
-        <v>1.1797189806042392</v>
-      </c>
-      <c r="L16" s="17">
-        <f t="shared" si="5"/>
-        <v>1.179149087052298</v>
+        <v>1.1793376231829138</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
@@ -5421,47 +5457,50 @@
       <c r="AA16" s="14"/>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1">
-      <c r="A17" s="1">
+      <c r="A17" s="63">
         <v>1996</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="65">
         <v>128499</v>
       </c>
-      <c r="C17" s="70">
-        <v>13276064</v>
-      </c>
-      <c r="D17" s="67">
+      <c r="C17" s="65">
         <v>397008</v>
       </c>
-      <c r="E17" s="67">
-        <v>4314891.6032518465</v>
-      </c>
-      <c r="F17" s="67">
-        <v>4511616.4993226184</v>
-      </c>
-      <c r="G17" s="67">
+      <c r="D17" s="68">
+        <f>'Employment calcs'!F12</f>
+        <v>13276064.253800001</v>
+      </c>
+      <c r="E17" s="65">
+        <f>'Exergy calcs'!AO37</f>
+        <v>4253256.5934229139</v>
+      </c>
+      <c r="F17" s="65">
+        <f>'Exergy calcs'!AD37</f>
+        <v>4502741.0579072516</v>
+      </c>
+      <c r="G17" s="65">
+        <f>A17-$A$12</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <f>B17/$B$12</f>
+        <v>1.1241372070440647</v>
+      </c>
+      <c r="I17" s="7">
+        <f>C17/$C$12</f>
+        <v>1.0643931472693637</v>
+      </c>
+      <c r="J17" s="7">
+        <f>D17/$D$12</f>
+        <v>1.0762276410999878</v>
+      </c>
+      <c r="K17" s="62">
+        <f t="shared" si="0"/>
+        <v>1.2237451216322293</v>
+      </c>
+      <c r="L17" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="2"/>
-        <v>1.1241372070440647</v>
-      </c>
-      <c r="I17" s="7">
-        <f t="shared" si="3"/>
-        <v>1.0762276118011567</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="4"/>
-        <v>1.0643931472693637</v>
-      </c>
-      <c r="K17" s="64">
-        <f t="shared" si="0"/>
-        <v>1.2218098587699431</v>
-      </c>
-      <c r="L17" s="17">
-        <f t="shared" si="5"/>
-        <v>1.2204229295084879</v>
+        <v>1.2206824784460704</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
@@ -5479,47 +5518,50 @@
       <c r="AA17" s="14"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1">
-      <c r="A18" s="1">
+      <c r="A18" s="63">
         <v>1997</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="65">
         <v>132848</v>
       </c>
-      <c r="C18" s="70">
-        <v>14125906</v>
-      </c>
-      <c r="D18" s="67">
+      <c r="C18" s="65">
         <v>407239</v>
       </c>
-      <c r="E18" s="67">
-        <v>4821273.9013532931</v>
-      </c>
-      <c r="F18" s="67">
-        <v>5042585.7433253461</v>
-      </c>
-      <c r="G18" s="67">
+      <c r="D18" s="68">
+        <f>'Employment calcs'!F13</f>
+        <v>14125906.439999999</v>
+      </c>
+      <c r="E18" s="65">
+        <f>'Exergy calcs'!AO38</f>
+        <v>4755693.4427454052</v>
+      </c>
+      <c r="F18" s="65">
+        <f>'Exergy calcs'!AD38</f>
+        <v>5033142.1572858104</v>
+      </c>
+      <c r="G18" s="65">
+        <f>A18-$A$12</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="7">
+        <f>B18/$B$12</f>
+        <v>1.1621832051719463</v>
+      </c>
+      <c r="I18" s="7">
+        <f>C18/$C$12</f>
+        <v>1.09182283707338</v>
+      </c>
+      <c r="J18" s="7">
+        <f>D18/$D$12</f>
+        <v>1.1451203214814862</v>
+      </c>
+      <c r="K18" s="62">
+        <f t="shared" si="0"/>
+        <v>1.3683060315565108</v>
+      </c>
+      <c r="L18" s="17">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="2"/>
-        <v>1.1621832051719463</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" si="3"/>
-        <v>1.1451202765298232</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="4"/>
-        <v>1.09182283707338</v>
-      </c>
-      <c r="K18" s="64">
-        <f t="shared" si="0"/>
-        <v>1.3651976749692314</v>
-      </c>
-      <c r="L18" s="17">
-        <f t="shared" si="5"/>
-        <v>1.3640537191250275</v>
+        <v>1.3644729652258847</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
@@ -5537,671 +5579,704 @@
       <c r="AA18" s="14"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1">
-      <c r="A19" s="1">
+      <c r="A19" s="63">
         <v>1998</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="65">
         <v>136489</v>
       </c>
-      <c r="C19" s="70">
-        <v>14874142</v>
-      </c>
-      <c r="D19" s="67">
+      <c r="C19" s="65">
         <v>417988</v>
       </c>
-      <c r="E19" s="67">
-        <v>4999482.2425574809</v>
-      </c>
-      <c r="F19" s="67">
-        <v>5224716.2882141732</v>
-      </c>
-      <c r="G19" s="67">
+      <c r="D19" s="68">
+        <f>'Employment calcs'!F14</f>
+        <v>14874142.339199997</v>
+      </c>
+      <c r="E19" s="65">
+        <f>'Exergy calcs'!AO39</f>
+        <v>4930200.8971525459</v>
+      </c>
+      <c r="F19" s="65">
+        <f>'Exergy calcs'!AD39</f>
+        <v>5214739.7744758623</v>
+      </c>
+      <c r="G19" s="65">
+        <f>A19-$A$12</f>
+        <v>7</v>
+      </c>
+      <c r="H19" s="7">
+        <f>B19/$B$12</f>
+        <v>1.1940354652739504</v>
+      </c>
+      <c r="I19" s="7">
+        <f>C19/$C$12</f>
+        <v>1.1206413040564089</v>
+      </c>
+      <c r="J19" s="7">
+        <f>D19/$D$12</f>
+        <v>1.2057762614790537</v>
+      </c>
+      <c r="K19" s="62">
+        <f t="shared" si="0"/>
+        <v>1.4185152398016532</v>
+      </c>
+      <c r="L19" s="17">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H19" s="7">
-        <f t="shared" si="2"/>
-        <v>1.1940354652739504</v>
-      </c>
-      <c r="I19" s="7">
-        <f t="shared" si="3"/>
-        <v>1.2057762242070602</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="4"/>
-        <v>1.1206413040564089</v>
-      </c>
-      <c r="K19" s="64">
+        <v>1.4137036508417438</v>
+      </c>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1">
+      <c r="A20" s="63">
+        <v>1999</v>
+      </c>
+      <c r="B20" s="65">
+        <v>139129</v>
+      </c>
+      <c r="C20" s="65">
+        <v>430264</v>
+      </c>
+      <c r="D20" s="68">
+        <f>'Employment calcs'!F15</f>
+        <v>15388226.695800001</v>
+      </c>
+      <c r="E20" s="65">
+        <f>'Exergy calcs'!AO40</f>
+        <v>5201265.7480995348</v>
+      </c>
+      <c r="F20" s="65">
+        <f>'Exergy calcs'!AD40</f>
+        <v>5496729.03809777</v>
+      </c>
+      <c r="G20" s="65">
+        <f>A20-$A$12</f>
+        <v>8</v>
+      </c>
+      <c r="H20" s="7">
+        <f>B20/$B$12</f>
+        <v>1.2171307596077299</v>
+      </c>
+      <c r="I20" s="7">
+        <f>C20/$C$12</f>
+        <v>1.1535537145767982</v>
+      </c>
+      <c r="J20" s="7">
+        <f>D20/$D$12</f>
+        <v>1.2474506450804785</v>
+      </c>
+      <c r="K20" s="62">
         <f t="shared" si="0"/>
-        <v>1.4156593616624082</v>
-      </c>
-      <c r="L19" s="17">
-        <f t="shared" si="5"/>
-        <v>1.4133212694985073</v>
-      </c>
-      <c r="N19" s="14"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1">
-      <c r="A20" s="1">
-        <v>1999</v>
-      </c>
-      <c r="B20" s="67">
-        <v>139129</v>
-      </c>
-      <c r="C20" s="70">
-        <v>15388227</v>
-      </c>
-      <c r="D20" s="67">
-        <v>430264</v>
-      </c>
-      <c r="E20" s="67">
-        <v>5272941.6151558468</v>
-      </c>
-      <c r="F20" s="67">
-        <v>5507050.3629538789</v>
-      </c>
-      <c r="G20" s="67">
+        <v>1.4965058998303231</v>
+      </c>
+      <c r="L20" s="17">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="2"/>
-        <v>1.2171307596077299</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="3"/>
-        <v>1.2474506596280401</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="4"/>
-        <v>1.1535537145767982</v>
-      </c>
-      <c r="K20" s="64">
+        <v>1.4901502749727695</v>
+      </c>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1">
+      <c r="A21" s="63">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="65">
+        <v>146284</v>
+      </c>
+      <c r="C21" s="65">
+        <v>443388</v>
+      </c>
+      <c r="D21" s="68">
+        <f>'Employment calcs'!F16</f>
+        <v>16564277.866500001</v>
+      </c>
+      <c r="E21" s="65">
+        <f>'Exergy calcs'!AO41</f>
+        <v>5408387.9188720249</v>
+      </c>
+      <c r="F21" s="65">
+        <f>'Exergy calcs'!AD41</f>
+        <v>5715303.0741459699</v>
+      </c>
+      <c r="G21" s="65">
+        <f>A21-$A$12</f>
+        <v>9</v>
+      </c>
+      <c r="H21" s="7">
+        <f>B21/$B$12</f>
+        <v>1.2797242561828028</v>
+      </c>
+      <c r="I21" s="7">
+        <f>C21/$C$12</f>
+        <v>1.1887396444944904</v>
+      </c>
+      <c r="J21" s="7">
+        <f>D21/$D$12</f>
+        <v>1.3427875426021263</v>
+      </c>
+      <c r="K21" s="62">
         <f t="shared" si="0"/>
-        <v>1.4930924441439997</v>
-      </c>
-      <c r="L20" s="17">
-        <f t="shared" si="5"/>
-        <v>1.4896945558019052</v>
-      </c>
-      <c r="N20" s="14"/>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1">
-      <c r="A21" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B21" s="67">
-        <v>146284</v>
-      </c>
-      <c r="C21" s="70">
-        <v>16564278</v>
-      </c>
-      <c r="D21" s="67">
-        <v>443388</v>
-      </c>
-      <c r="E21" s="67">
-        <v>5485794.604787034</v>
-      </c>
-      <c r="F21" s="67">
-        <v>5726449.6369177308</v>
-      </c>
-      <c r="G21" s="67">
+        <v>1.5560989999636801</v>
+      </c>
+      <c r="L21" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="2"/>
-        <v>1.2797242561828028</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" si="3"/>
-        <v>1.3427875425389963</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="4"/>
-        <v>1.1887396444944904</v>
-      </c>
-      <c r="K21" s="64">
+        <v>1.5494051805105273</v>
+      </c>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1">
+      <c r="A22" s="63">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="65">
+        <v>151652</v>
+      </c>
+      <c r="C22" s="65">
+        <v>461719</v>
+      </c>
+      <c r="D22" s="68">
+        <f>'Employment calcs'!F17</f>
+        <v>17327731.398899999</v>
+      </c>
+      <c r="E22" s="65">
+        <f>'Exergy calcs'!AO42</f>
+        <v>5781881.9264556412</v>
+      </c>
+      <c r="F22" s="65">
+        <f>'Exergy calcs'!AD42</f>
+        <v>6105252.9508735603</v>
+      </c>
+      <c r="G22" s="65">
+        <f>A22-$A$12</f>
+        <v>10</v>
+      </c>
+      <c r="H22" s="7">
+        <f>B22/$B$12</f>
+        <v>1.3266846879948211</v>
+      </c>
+      <c r="I22" s="7">
+        <f>C22/$C$12</f>
+        <v>1.2378857342019893</v>
+      </c>
+      <c r="J22" s="7">
+        <f>D22/$D$12</f>
+        <v>1.4046771040381612</v>
+      </c>
+      <c r="K22" s="62">
         <f t="shared" si="0"/>
-        <v>1.5533641508547886</v>
-      </c>
-      <c r="L21" s="17">
-        <f t="shared" si="5"/>
-        <v>1.5490435507138622</v>
-      </c>
-      <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1">
-      <c r="A22" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B22" s="67">
-        <v>151652</v>
-      </c>
-      <c r="C22" s="70">
-        <v>17327731</v>
-      </c>
-      <c r="D22" s="67">
-        <v>461719</v>
-      </c>
-      <c r="E22" s="67">
-        <v>5862856.3144020624</v>
-      </c>
-      <c r="F22" s="67">
-        <v>6116913.2627378451</v>
-      </c>
-      <c r="G22" s="67">
+        <v>1.6635605320156388</v>
+      </c>
+      <c r="L22" s="17">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3266846879948211</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="3"/>
-        <v>1.4046770603141765</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="4"/>
-        <v>1.2378857342019893</v>
-      </c>
-      <c r="K22" s="64">
+        <v>1.6551196721661519</v>
+      </c>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:27" ht="15" customHeight="1">
+      <c r="A23" s="63">
+        <v>2002</v>
+      </c>
+      <c r="B23" s="65">
+        <v>163050</v>
+      </c>
+      <c r="C23" s="65">
+        <v>484696</v>
+      </c>
+      <c r="D23" s="68">
+        <f>'Employment calcs'!F18</f>
+        <v>18086977.934999999</v>
+      </c>
+      <c r="E23" s="65">
+        <f>'Exergy calcs'!AO43</f>
+        <v>6322140.3753953855</v>
+      </c>
+      <c r="F23" s="65">
+        <f>'Exergy calcs'!AD43</f>
+        <v>6671030.2746684076</v>
+      </c>
+      <c r="G23" s="65">
+        <f>A23-$A$12</f>
+        <v>11</v>
+      </c>
+      <c r="H23" s="7">
+        <f>B23/$B$12</f>
+        <v>1.4263968716374038</v>
+      </c>
+      <c r="I23" s="7">
+        <f>C23/$C$12</f>
+        <v>1.2994879219282018</v>
+      </c>
+      <c r="J23" s="7">
+        <f>D23/$D$12</f>
+        <v>1.4662256242124556</v>
+      </c>
+      <c r="K23" s="62">
         <f t="shared" si="0"/>
-        <v>1.6601333947971149</v>
-      </c>
-      <c r="L22" s="17">
-        <f t="shared" si="5"/>
-        <v>1.6546666155646617</v>
-      </c>
-      <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1">
-      <c r="A23" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B23" s="67">
-        <v>163050</v>
-      </c>
-      <c r="C23" s="70">
-        <v>18086978</v>
-      </c>
-      <c r="D23" s="67">
-        <v>484696</v>
-      </c>
-      <c r="E23" s="67">
-        <v>6406662.8056184221</v>
-      </c>
-      <c r="F23" s="67">
-        <v>6683201.5046205251</v>
-      </c>
-      <c r="G23" s="67">
+        <v>1.8190034559936956</v>
+      </c>
+      <c r="L23" s="17">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" si="2"/>
-        <v>1.4263968716374038</v>
-      </c>
-      <c r="I23" s="7">
-        <f t="shared" si="3"/>
-        <v>1.4662256175957016</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="4"/>
-        <v>1.2994879219282018</v>
-      </c>
-      <c r="K23" s="64">
+        <v>1.8085005699296726</v>
+      </c>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:27" ht="15" customHeight="1">
+      <c r="A24" s="63">
+        <v>2003</v>
+      </c>
+      <c r="B24" s="65">
+        <v>174650</v>
+      </c>
+      <c r="C24" s="65">
+        <v>512030</v>
+      </c>
+      <c r="D24" s="68">
+        <f>'Employment calcs'!F19</f>
+        <v>19329521.379999999</v>
+      </c>
+      <c r="E24" s="65">
+        <f>'Exergy calcs'!AO44</f>
+        <v>6656429.2250600858</v>
+      </c>
+      <c r="F24" s="65">
+        <f>'Exergy calcs'!AD44</f>
+        <v>7023301.7328926474</v>
+      </c>
+      <c r="G24" s="65">
+        <f>A24-$A$12</f>
+        <v>12</v>
+      </c>
+      <c r="H24" s="7">
+        <f>B24/$B$12</f>
+        <v>1.5278761952252229</v>
+      </c>
+      <c r="I24" s="7">
+        <f>C24/$C$12</f>
+        <v>1.3727713879728678</v>
+      </c>
+      <c r="J24" s="7">
+        <f>D24/$D$12</f>
+        <v>1.5669527354415114</v>
+      </c>
+      <c r="K24" s="62">
         <f t="shared" si="0"/>
-        <v>1.8141182902068866</v>
-      </c>
-      <c r="L23" s="17">
-        <f t="shared" si="5"/>
-        <v>1.8078514341786631</v>
-      </c>
-      <c r="N23" s="14"/>
-    </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1">
-      <c r="A24" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B24" s="67">
-        <v>174650</v>
-      </c>
-      <c r="C24" s="70">
-        <v>19329521</v>
-      </c>
-      <c r="D24" s="67">
-        <v>512030</v>
-      </c>
-      <c r="E24" s="67">
-        <v>6746610.6006250158</v>
-      </c>
-      <c r="F24" s="67">
-        <v>7036287.8509739973</v>
-      </c>
-      <c r="G24" s="67">
+        <v>1.9151848972041365</v>
+      </c>
+      <c r="L24" s="17">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H24" s="7">
-        <f t="shared" si="2"/>
-        <v>1.5278761952252229</v>
-      </c>
-      <c r="I24" s="7">
-        <f t="shared" si="3"/>
-        <v>1.5669526919341685</v>
-      </c>
-      <c r="J24" s="7">
-        <f t="shared" si="4"/>
-        <v>1.3727713879728678</v>
-      </c>
-      <c r="K24" s="64">
+        <v>1.9040005312156616</v>
+      </c>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:27" ht="15" customHeight="1">
+      <c r="A25" s="63">
+        <v>2004</v>
+      </c>
+      <c r="B25" s="65">
+        <v>183530</v>
+      </c>
+      <c r="C25" s="65">
+        <v>541714</v>
+      </c>
+      <c r="D25" s="68">
+        <f>'Employment calcs'!F20</f>
+        <v>21122692.831799999</v>
+      </c>
+      <c r="E25" s="65">
+        <f>'Exergy calcs'!AO45</f>
+        <v>6912932.0454738596</v>
+      </c>
+      <c r="F25" s="65">
+        <f>'Exergy calcs'!AD45</f>
+        <v>7295143.2807066031</v>
+      </c>
+      <c r="G25" s="65">
+        <f>A25-$A$12</f>
+        <v>13</v>
+      </c>
+      <c r="H25" s="7">
+        <f>B25/$B$12</f>
+        <v>1.6055603670752083</v>
+      </c>
+      <c r="I25" s="7">
+        <f>C25/$C$12</f>
+        <v>1.4523552910265691</v>
+      </c>
+      <c r="J25" s="7">
+        <f>D25/$D$12</f>
+        <v>1.7123166508885288</v>
+      </c>
+      <c r="K25" s="62">
         <f t="shared" si="0"/>
-        <v>1.9103783137711257</v>
-      </c>
-      <c r="L24" s="17">
-        <f t="shared" si="5"/>
-        <v>1.9033636908722122</v>
-      </c>
-      <c r="N24" s="14"/>
-    </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1">
-      <c r="A25" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B25" s="67">
-        <v>183530</v>
-      </c>
-      <c r="C25" s="70">
-        <v>21122693</v>
-      </c>
-      <c r="D25" s="67">
-        <v>541714</v>
-      </c>
-      <c r="E25" s="67">
-        <v>7011479.4154660702</v>
-      </c>
-      <c r="F25" s="67">
-        <v>7309334.1019854816</v>
-      </c>
-      <c r="G25" s="67">
+        <v>1.988985776194522</v>
+      </c>
+      <c r="L25" s="17">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H25" s="7">
-        <f t="shared" si="2"/>
-        <v>1.6055603670752083</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="3"/>
-        <v>1.7123166506427665</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" si="4"/>
-        <v>1.4523552910265691</v>
-      </c>
-      <c r="K25" s="64">
+        <v>1.9776961335304841</v>
+      </c>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:27" ht="15" customHeight="1">
+      <c r="A26" s="63">
+        <v>2005</v>
+      </c>
+      <c r="B26" s="65">
+        <v>192015</v>
+      </c>
+      <c r="C26" s="65">
+        <v>572644</v>
+      </c>
+      <c r="D26" s="68">
+        <f>'Employment calcs'!F21</f>
+        <v>21672707.775600001</v>
+      </c>
+      <c r="E26" s="65">
+        <f>'Exergy calcs'!AO46</f>
+        <v>7901509.2771605924</v>
+      </c>
+      <c r="F26" s="65">
+        <f>'Exergy calcs'!AD46</f>
+        <v>8326660.1909615118</v>
+      </c>
+      <c r="G26" s="65">
+        <f>A26-$A$12</f>
+        <v>14</v>
+      </c>
+      <c r="H26" s="7">
+        <f>B26/$B$12</f>
+        <v>1.6797889929926777</v>
+      </c>
+      <c r="I26" s="7">
+        <f>C26/$C$12</f>
+        <v>1.5352797662135713</v>
+      </c>
+      <c r="J26" s="7">
+        <f>D26/$D$12</f>
+        <v>1.7569037569931252</v>
+      </c>
+      <c r="K26" s="62">
         <f t="shared" si="0"/>
-        <v>1.9853788836602095</v>
-      </c>
-      <c r="L25" s="17">
-        <f t="shared" si="5"/>
-        <v>1.9772245577257619</v>
-      </c>
-      <c r="N25" s="14"/>
-    </row>
-    <row r="26" spans="1:27" ht="15" customHeight="1">
-      <c r="A26" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B26" s="67">
-        <v>192015</v>
-      </c>
-      <c r="C26" s="70">
-        <v>21672708</v>
-      </c>
-      <c r="D26" s="67">
-        <v>572644</v>
-      </c>
-      <c r="E26" s="67">
-        <v>8002622.7274627108</v>
-      </c>
-      <c r="F26" s="67">
-        <v>8341220.5278050164</v>
-      </c>
-      <c r="G26" s="67">
+        <v>2.2734187837172928</v>
+      </c>
+      <c r="L26" s="17">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="H26" s="7">
-        <f t="shared" si="2"/>
-        <v>1.6797889929926777</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="3"/>
-        <v>1.7569037609417837</v>
-      </c>
-      <c r="J26" s="7">
-        <f t="shared" si="4"/>
-        <v>1.5352797662135713</v>
-      </c>
-      <c r="K26" s="64">
+        <v>2.2573379344636728</v>
+      </c>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:27" ht="15" customHeight="1">
+      <c r="A27" s="63">
+        <v>2006</v>
+      </c>
+      <c r="B27" s="65">
+        <v>203332</v>
+      </c>
+      <c r="C27" s="65">
+        <v>603700</v>
+      </c>
+      <c r="D27" s="68">
+        <f>'Employment calcs'!F22</f>
+        <v>21703991.445</v>
+      </c>
+      <c r="E27" s="65">
+        <f>'Exergy calcs'!AO47</f>
+        <v>8265946.8196515189</v>
+      </c>
+      <c r="F27" s="65">
+        <f>'Exergy calcs'!AD47</f>
+        <v>8711274.5129109267</v>
+      </c>
+      <c r="G27" s="65">
+        <f>A27-$A$12</f>
+        <v>15</v>
+      </c>
+      <c r="H27" s="7">
+        <f>B27/$B$12</f>
+        <v>1.7787925710136561</v>
+      </c>
+      <c r="I27" s="7">
+        <f>C27/$C$12</f>
+        <v>1.618542052065739</v>
+      </c>
+      <c r="J27" s="7">
+        <f>D27/$D$12</f>
+        <v>1.7594397758824338</v>
+      </c>
+      <c r="K27" s="62">
         <f t="shared" si="0"/>
-        <v>2.2660322074050629</v>
-      </c>
-      <c r="L26" s="17">
-        <f t="shared" si="5"/>
-        <v>2.2563568498671258</v>
-      </c>
-      <c r="N26" s="14"/>
-    </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1">
-      <c r="A27" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B27" s="67">
-        <v>203332</v>
-      </c>
-      <c r="C27" s="70">
-        <v>21703991</v>
-      </c>
-      <c r="D27" s="67">
-        <v>603700</v>
-      </c>
-      <c r="E27" s="67">
-        <v>8367040.4957557153</v>
-      </c>
-      <c r="F27" s="67">
-        <v>8725832.0022699311</v>
-      </c>
-      <c r="G27" s="67">
+        <v>2.3782745936048397</v>
+      </c>
+      <c r="L27" s="17">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="H27" s="7">
-        <f t="shared" si="2"/>
-        <v>1.7787925710136561</v>
-      </c>
-      <c r="I27" s="7">
-        <f t="shared" si="3"/>
-        <v>1.7594397255454477</v>
-      </c>
-      <c r="J27" s="7">
-        <f t="shared" si="4"/>
-        <v>1.618542052065739</v>
-      </c>
-      <c r="K27" s="64">
+        <v>2.3616059698059657</v>
+      </c>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="1:27" ht="15" customHeight="1">
+      <c r="A28" s="63">
+        <v>2007</v>
+      </c>
+      <c r="B28" s="65">
+        <v>219242</v>
+      </c>
+      <c r="C28" s="65">
+        <v>636848</v>
+      </c>
+      <c r="D28" s="68">
+        <f>'Employment calcs'!F23</f>
+        <v>22259301.176800001</v>
+      </c>
+      <c r="E28" s="65">
+        <f>'Exergy calcs'!AO48</f>
+        <v>8465778.8759628106</v>
+      </c>
+      <c r="F28" s="65">
+        <f>'Exergy calcs'!AD48</f>
+        <v>8920376.1666200329</v>
+      </c>
+      <c r="G28" s="65">
+        <f>A28-$A$12</f>
+        <v>16</v>
+      </c>
+      <c r="H28" s="7">
+        <f>B28/$B$12</f>
+        <v>1.9179767122448801</v>
+      </c>
+      <c r="I28" s="7">
+        <f>C28/$C$12</f>
+        <v>1.7074130673744605</v>
+      </c>
+      <c r="J28" s="7">
+        <f>D28/$D$12</f>
+        <v>1.8044561053690826</v>
+      </c>
+      <c r="K28" s="62">
         <f t="shared" si="0"/>
-        <v>2.3692211778245698</v>
-      </c>
-      <c r="L27" s="17">
-        <f t="shared" si="5"/>
-        <v>2.3603968679979945</v>
-      </c>
-      <c r="N27" s="14"/>
-    </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1">
-      <c r="A28" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B28" s="67">
-        <v>219242</v>
-      </c>
-      <c r="C28" s="70">
-        <v>22259301</v>
-      </c>
-      <c r="D28" s="67">
-        <v>636848</v>
-      </c>
-      <c r="E28" s="67">
-        <v>8569459.0948375538</v>
-      </c>
-      <c r="F28" s="67">
-        <v>8935306.1181379966</v>
-      </c>
-      <c r="G28" s="67">
+        <v>2.4357701852027778</v>
+      </c>
+      <c r="L28" s="17">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="H28" s="7">
-        <f t="shared" si="2"/>
-        <v>1.9179767122448801</v>
-      </c>
-      <c r="I28" s="7">
-        <f t="shared" si="3"/>
-        <v>1.8044560764088737</v>
-      </c>
-      <c r="J28" s="7">
-        <f t="shared" si="4"/>
-        <v>1.7074130673744605</v>
-      </c>
-      <c r="K28" s="64">
+        <v>2.418292934837758</v>
+      </c>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1">
+      <c r="A29" s="63">
+        <v>2008</v>
+      </c>
+      <c r="B29" s="65">
+        <v>224285</v>
+      </c>
+      <c r="C29" s="65">
+        <v>671446</v>
+      </c>
+      <c r="D29" s="68">
+        <f>'Employment calcs'!F24</f>
+        <v>21426545.852400001</v>
+      </c>
+      <c r="E29" s="65">
+        <f>'Exergy calcs'!AO49</f>
+        <v>8768465.2101598158</v>
+      </c>
+      <c r="F29" s="65">
+        <f>'Exergy calcs'!AD49</f>
+        <v>9246726.096394185</v>
+      </c>
+      <c r="G29" s="65">
+        <f>A29-$A$12</f>
+        <v>17</v>
+      </c>
+      <c r="H29" s="7">
+        <f>B29/$B$12</f>
+        <v>1.9620939733529292</v>
+      </c>
+      <c r="I29" s="7">
+        <f>C29/$C$12</f>
+        <v>1.8001715863696077</v>
+      </c>
+      <c r="J29" s="7">
+        <f>D29/$D$12</f>
+        <v>1.7369485759342249</v>
+      </c>
+      <c r="K29" s="62">
         <f t="shared" si="0"/>
-        <v>2.4265382700477449</v>
-      </c>
-      <c r="L28" s="17">
-        <f t="shared" si="5"/>
-        <v>2.4170610401815762</v>
-      </c>
-      <c r="N28" s="14"/>
-    </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1">
-      <c r="A29" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B29" s="67">
-        <v>224285</v>
-      </c>
-      <c r="C29" s="70">
-        <v>21426546</v>
-      </c>
-      <c r="D29" s="67">
-        <v>671446</v>
-      </c>
-      <c r="E29" s="67">
-        <v>8868266.5896398667</v>
-      </c>
-      <c r="F29" s="67">
-        <v>9261097.4950393122</v>
-      </c>
-      <c r="G29" s="67">
+        <v>2.5228589645233384</v>
+      </c>
+      <c r="L29" s="17">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="H29" s="7">
-        <f t="shared" si="2"/>
-        <v>1.9620939733529292</v>
-      </c>
-      <c r="I29" s="7">
-        <f t="shared" si="3"/>
-        <v>1.7369485738188386</v>
-      </c>
-      <c r="J29" s="7">
-        <f t="shared" si="4"/>
-        <v>1.8001715863696077</v>
-      </c>
-      <c r="K29" s="64">
+        <v>2.5067656309120383</v>
+      </c>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1">
+      <c r="A30" s="63">
+        <v>2009</v>
+      </c>
+      <c r="B30" s="65">
+        <v>228322</v>
+      </c>
+      <c r="C30" s="65">
+        <v>706393</v>
+      </c>
+      <c r="D30" s="68">
+        <f>'Employment calcs'!F25</f>
+        <v>21963085.544399999</v>
+      </c>
+      <c r="E30" s="65">
+        <f>'Exergy calcs'!AO50</f>
+        <v>9697754.6930541769</v>
+      </c>
+      <c r="F30" s="65">
+        <f>'Exergy calcs'!AD50</f>
+        <v>10213233.7835334</v>
+      </c>
+      <c r="G30" s="65">
+        <f>A30-$A$12</f>
+        <v>18</v>
+      </c>
+      <c r="H30" s="7">
+        <f>B30/$B$12</f>
+        <v>1.9974105276050005</v>
+      </c>
+      <c r="I30" s="7">
+        <f>C30/$C$12</f>
+        <v>1.8938657872865223</v>
+      </c>
+      <c r="J30" s="7">
+        <f>D30/$D$12</f>
+        <v>1.7804433072068904</v>
+      </c>
+      <c r="K30" s="62">
         <f t="shared" si="0"/>
-        <v>2.5111489570806875</v>
-      </c>
-      <c r="L29" s="17">
-        <f t="shared" si="5"/>
-        <v>2.5051898221084539</v>
-      </c>
-      <c r="N29" s="14"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1">
-      <c r="A30" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B30" s="67">
-        <v>228322</v>
-      </c>
-      <c r="C30" s="70">
-        <v>21963086</v>
-      </c>
-      <c r="D30" s="67">
-        <v>706393</v>
-      </c>
-      <c r="E30" s="67">
-        <v>9800055.1875001341</v>
-      </c>
-      <c r="F30" s="67">
-        <v>10227965.054733617</v>
-      </c>
-      <c r="G30" s="67">
+        <v>2.7902337269664645</v>
+      </c>
+      <c r="L30" s="17">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="H30" s="7">
-        <f t="shared" si="2"/>
-        <v>1.9974105276050005</v>
-      </c>
-      <c r="I30" s="7">
-        <f t="shared" si="3"/>
-        <v>1.7804433297070139</v>
-      </c>
-      <c r="J30" s="7">
-        <f t="shared" si="4"/>
-        <v>1.8938657872865223</v>
-      </c>
-      <c r="K30" s="64">
+        <v>2.7687835848208988</v>
+      </c>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1">
+      <c r="A31" s="63">
+        <v>2010</v>
+      </c>
+      <c r="B31" s="65">
+        <v>234966</v>
+      </c>
+      <c r="C31" s="65">
+        <v>741352</v>
+      </c>
+      <c r="D31" s="68">
+        <f>'Employment calcs'!F26</f>
+        <v>22783878.039999999</v>
+      </c>
+      <c r="E31" s="65">
+        <f>'Exergy calcs'!AO51</f>
+        <v>9766298.4341636188</v>
+      </c>
+      <c r="F31" s="65">
+        <f>'Exergy calcs'!AD51</f>
+        <v>10281147.204245841</v>
+      </c>
+      <c r="G31" s="65">
+        <f>A31-$A$12</f>
+        <v>19</v>
+      </c>
+      <c r="H31" s="7">
+        <f>B31/$B$12</f>
+        <v>2.055533685011679</v>
+      </c>
+      <c r="I31" s="7">
+        <f>C31/$C$12</f>
+        <v>1.9875921606477385</v>
+      </c>
+      <c r="J31" s="7">
+        <f>D31/$D$12</f>
+        <v>1.8469810667781668</v>
+      </c>
+      <c r="K31" s="62">
         <f t="shared" si="0"/>
-        <v>2.7749953290954816</v>
-      </c>
-      <c r="L30" s="17">
-        <f t="shared" si="5"/>
-        <v>2.7667340690155244</v>
-      </c>
-      <c r="N30" s="14"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1">
-      <c r="A31" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B31" s="67">
-        <v>234966</v>
-      </c>
-      <c r="C31" s="70">
-        <v>22783878</v>
-      </c>
-      <c r="D31" s="67">
-        <v>741352</v>
-      </c>
-      <c r="E31" s="67">
-        <v>9872422.0470856968</v>
-      </c>
-      <c r="F31" s="67">
-        <v>10296429.00450662</v>
-      </c>
-      <c r="G31" s="67">
+        <v>2.809955102096009</v>
+      </c>
+      <c r="L31" s="17">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" si="2"/>
-        <v>2.055533685011679</v>
-      </c>
-      <c r="I31" s="7">
-        <f t="shared" si="3"/>
-        <v>1.8469810485629561</v>
-      </c>
-      <c r="J31" s="7">
-        <f t="shared" si="4"/>
-        <v>1.9875921606477385</v>
-      </c>
-      <c r="K31" s="64">
+        <v>2.7871947529624541</v>
+      </c>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="1:27" ht="15" customHeight="1">
+      <c r="A32" s="63">
+        <v>2011</v>
+      </c>
+      <c r="B32" s="65">
+        <v>239718</v>
+      </c>
+      <c r="C32" s="65">
+        <v>778085</v>
+      </c>
+      <c r="D32" s="68">
+        <f>'Employment calcs'!F27</f>
+        <v>23037968.492000002</v>
+      </c>
+      <c r="E32" s="65">
+        <f>'Exergy calcs'!AO52</f>
+        <v>10799926.995566051</v>
+      </c>
+      <c r="F32" s="65">
+        <f>'Exergy calcs'!AD52</f>
+        <v>11378934.419703057</v>
+      </c>
+      <c r="G32" s="65">
+        <f>A32-$A$12</f>
+        <v>20</v>
+      </c>
+      <c r="H32" s="7">
+        <f>B32/$B$12</f>
+        <v>2.097105214812482</v>
+      </c>
+      <c r="I32" s="7">
+        <f>C32/$C$12</f>
+        <v>2.0860746936915198</v>
+      </c>
+      <c r="J32" s="7">
+        <f>D32/$D$12</f>
+        <v>1.8675789761098966</v>
+      </c>
+      <c r="K32" s="62">
         <f t="shared" si="0"/>
-        <v>2.7954868154686792</v>
-      </c>
-      <c r="L31" s="17">
-        <f t="shared" si="5"/>
-        <v>2.7852540327935258</v>
-      </c>
-      <c r="N31" s="14"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1">
-      <c r="A32" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B32" s="67">
-        <v>239718</v>
-      </c>
-      <c r="C32" s="70">
-        <v>23037968</v>
-      </c>
-      <c r="D32" s="67">
-        <v>778085</v>
-      </c>
-      <c r="E32" s="67">
-        <v>10907234.120650891</v>
-      </c>
-      <c r="F32" s="67">
-        <v>11394386.645715274</v>
-      </c>
-      <c r="G32" s="67">
+        <v>3.107350258445607</v>
+      </c>
+      <c r="L32" s="62">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H32" s="7">
-        <f t="shared" si="2"/>
-        <v>2.097105214812482</v>
-      </c>
-      <c r="I32" s="7">
-        <f t="shared" si="3"/>
-        <v>1.8675789210862097</v>
-      </c>
-      <c r="J32" s="7">
-        <f t="shared" si="4"/>
-        <v>2.0860746936915198</v>
-      </c>
-      <c r="K32" s="64">
-        <f t="shared" si="0"/>
-        <v>3.0885054378839611</v>
-      </c>
-      <c r="L32" s="64">
-        <f t="shared" si="5"/>
-        <v>3.0822590377981136</v>
+        <v>3.0848022772986505</v>
       </c>
       <c r="N32" s="14"/>
     </row>
-    <row r="35" spans="2:25">
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="61"/>
-      <c r="X35" s="61"/>
-      <c r="Y35" s="61"/>
+    <row r="35" spans="6:25">
+      <c r="F35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="5">
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="L10:L11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6214,18 +6289,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J2" sqref="J2:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="9" width="8.85546875" style="16"/>
+    <col min="1" max="9" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="16" t="str">
         <f>'Iran Workbook'!A11</f>
         <v>Year</v>
@@ -6238,13 +6313,11 @@
         <f>'Iran Workbook'!H9</f>
         <v>iGDP</v>
       </c>
-      <c r="D1" s="16" t="str">
-        <f>'Iran Workbook'!I9</f>
-        <v>iLabor</v>
-      </c>
-      <c r="E1" s="16" t="str">
-        <f>'Iran Workbook'!J9</f>
-        <v>iCapStk</v>
+      <c r="D1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="F1" s="16" t="str">
         <f>'Iran Workbook'!K9</f>
@@ -6260,33 +6333,36 @@
       <c r="I1" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="16">
         <f>'Iran Workbook'!A12</f>
         <v>1991</v>
       </c>
-      <c r="B2" s="68">
+      <c r="B2" s="66">
         <f>'Iran Workbook'!G12</f>
         <v>0</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="67">
         <f>'Iran Workbook'!H12</f>
         <v>1</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="67">
         <f>'Iran Workbook'!I12</f>
         <v>1</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="67">
         <f>'Iran Workbook'!J12</f>
         <v>1</v>
       </c>
-      <c r="F2" s="69">
+      <c r="F2" s="67">
         <f>'Iran Workbook'!K12</f>
         <v>1</v>
       </c>
-      <c r="G2" s="69">
+      <c r="G2" s="67">
         <f>'Iran Workbook'!L12</f>
         <v>1</v>
       </c>
@@ -6296,35 +6372,38 @@
       <c r="I2" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="16">
         <f>'Iran Workbook'!A13</f>
         <v>1992</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="66">
         <f>'Iran Workbook'!G13</f>
         <v>1</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="67">
         <f>'Iran Workbook'!H13</f>
         <v>1.0425075890787252</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="67">
         <f>'Iran Workbook'!I13</f>
-        <v>0.99232068769283399</v>
-      </c>
-      <c r="E3" s="69">
+        <v>1.0286817340947478</v>
+      </c>
+      <c r="E3" s="67">
         <f>'Iran Workbook'!J13</f>
-        <v>1.0286817340947478</v>
-      </c>
-      <c r="F3" s="69">
+        <v>0.9923206837799815</v>
+      </c>
+      <c r="F3" s="67">
         <f>'Iran Workbook'!K13</f>
-        <v>1.0350887801210376</v>
-      </c>
-      <c r="G3" s="69">
+        <v>1.03577726673788</v>
+      </c>
+      <c r="G3" s="67">
         <f>'Iran Workbook'!L13</f>
-        <v>1.0351477264441471</v>
+        <v>1.0352412697060405</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>106</v>
@@ -6332,35 +6411,38 @@
       <c r="I3" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="16">
         <f>'Iran Workbook'!A14</f>
         <v>1993</v>
       </c>
-      <c r="B4" s="68">
+      <c r="B4" s="66">
         <f>'Iran Workbook'!G14</f>
         <v>2</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="67">
         <f>'Iran Workbook'!H14</f>
         <v>1.0260784365185593</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="67">
         <f>'Iran Workbook'!I14</f>
-        <v>1.0258154760071143</v>
-      </c>
-      <c r="E4" s="69">
+        <v>1.0451808359473445</v>
+      </c>
+      <c r="E4" s="67">
         <f>'Iran Workbook'!J14</f>
-        <v>1.0451808359473445</v>
-      </c>
-      <c r="F4" s="69">
+        <v>1.0258154818585306</v>
+      </c>
+      <c r="F4" s="67">
         <f>'Iran Workbook'!K14</f>
-        <v>1.0665900041362124</v>
-      </c>
-      <c r="G4" s="69">
+        <v>1.0670517918372191</v>
+      </c>
+      <c r="G4" s="67">
         <f>'Iran Workbook'!L14</f>
-        <v>1.0664991895513447</v>
+        <v>1.0665616469821457</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>106</v>
@@ -6368,35 +6450,38 @@
       <c r="I4" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="16">
         <f>'Iran Workbook'!A15</f>
         <v>1994</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="66">
         <f>'Iran Workbook'!G15</f>
         <v>3</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="67">
         <f>'Iran Workbook'!H15</f>
         <v>1.0224829191052323</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="67">
         <f>'Iran Workbook'!I15</f>
-        <v>1.0326056645162756</v>
-      </c>
-      <c r="E5" s="69">
+        <v>1.0479449851202445</v>
+      </c>
+      <c r="E5" s="67">
         <f>'Iran Workbook'!J15</f>
-        <v>1.0479449851202445</v>
-      </c>
-      <c r="F5" s="69">
+        <v>1.0326056463787794</v>
+      </c>
+      <c r="F5" s="67">
         <f>'Iran Workbook'!K15</f>
-        <v>1.1369651953432378</v>
-      </c>
-      <c r="G5" s="69">
+        <v>1.1384492952767526</v>
+      </c>
+      <c r="G5" s="67">
         <f>'Iran Workbook'!L15</f>
-        <v>1.1371924779554503</v>
+        <v>1.1373943384611491</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>106</v>
@@ -6404,35 +6489,38 @@
       <c r="I5" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="16">
         <f>'Iran Workbook'!A16</f>
         <v>1995</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="66">
         <f>'Iran Workbook'!G16</f>
         <v>4</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="67">
         <f>'Iran Workbook'!H16</f>
         <v>1.0496023935123218</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="67">
         <f>'Iran Workbook'!I16</f>
-        <v>1.0676674443527505</v>
-      </c>
-      <c r="E6" s="69">
+        <v>1.0470682860130298</v>
+      </c>
+      <c r="E6" s="67">
         <f>'Iran Workbook'!J16</f>
-        <v>1.0470682860130298</v>
-      </c>
-      <c r="F6" s="69">
+        <v>1.0676674469765692</v>
+      </c>
+      <c r="F6" s="67">
         <f>'Iran Workbook'!K16</f>
-        <v>1.1797189806042392</v>
-      </c>
-      <c r="G6" s="69">
+        <v>1.1811177098520949</v>
+      </c>
+      <c r="G6" s="67">
         <f>'Iran Workbook'!L16</f>
-        <v>1.179149087052298</v>
+        <v>1.1793376231829138</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>106</v>
@@ -6440,35 +6528,38 @@
       <c r="I6" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="16">
         <f>'Iran Workbook'!A17</f>
         <v>1996</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="66">
         <f>'Iran Workbook'!G17</f>
         <v>5</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="67">
         <f>'Iran Workbook'!H17</f>
         <v>1.1241372070440647</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="67">
         <f>'Iran Workbook'!I17</f>
-        <v>1.0762276118011567</v>
-      </c>
-      <c r="E7" s="69">
+        <v>1.0643931472693637</v>
+      </c>
+      <c r="E7" s="67">
         <f>'Iran Workbook'!J17</f>
-        <v>1.0643931472693637</v>
-      </c>
-      <c r="F7" s="69">
+        <v>1.0762276410999878</v>
+      </c>
+      <c r="F7" s="67">
         <f>'Iran Workbook'!K17</f>
-        <v>1.2218098587699431</v>
-      </c>
-      <c r="G7" s="69">
+        <v>1.2237451216322293</v>
+      </c>
+      <c r="G7" s="67">
         <f>'Iran Workbook'!L17</f>
-        <v>1.2204229295084879</v>
+        <v>1.2206824784460704</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>106</v>
@@ -6476,35 +6567,38 @@
       <c r="I7" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="16">
         <f>'Iran Workbook'!A18</f>
         <v>1997</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="66">
         <f>'Iran Workbook'!G18</f>
         <v>6</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="67">
         <f>'Iran Workbook'!H18</f>
         <v>1.1621832051719463</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="67">
         <f>'Iran Workbook'!I18</f>
-        <v>1.1451202765298232</v>
-      </c>
-      <c r="E8" s="69">
+        <v>1.09182283707338</v>
+      </c>
+      <c r="E8" s="67">
         <f>'Iran Workbook'!J18</f>
-        <v>1.09182283707338</v>
-      </c>
-      <c r="F8" s="69">
+        <v>1.1451203214814862</v>
+      </c>
+      <c r="F8" s="67">
         <f>'Iran Workbook'!K18</f>
-        <v>1.3651976749692314</v>
-      </c>
-      <c r="G8" s="69">
+        <v>1.3683060315565108</v>
+      </c>
+      <c r="G8" s="67">
         <f>'Iran Workbook'!L18</f>
-        <v>1.3640537191250275</v>
+        <v>1.3644729652258847</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>106</v>
@@ -6512,35 +6606,38 @@
       <c r="I8" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="16">
         <f>'Iran Workbook'!A19</f>
         <v>1998</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="66">
         <f>'Iran Workbook'!G19</f>
         <v>7</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="67">
         <f>'Iran Workbook'!H19</f>
         <v>1.1940354652739504</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="67">
         <f>'Iran Workbook'!I19</f>
-        <v>1.2057762242070602</v>
-      </c>
-      <c r="E9" s="69">
+        <v>1.1206413040564089</v>
+      </c>
+      <c r="E9" s="67">
         <f>'Iran Workbook'!J19</f>
-        <v>1.1206413040564089</v>
-      </c>
-      <c r="F9" s="69">
+        <v>1.2057762614790537</v>
+      </c>
+      <c r="F9" s="67">
         <f>'Iran Workbook'!K19</f>
-        <v>1.4156593616624082</v>
-      </c>
-      <c r="G9" s="69">
+        <v>1.4185152398016532</v>
+      </c>
+      <c r="G9" s="67">
         <f>'Iran Workbook'!L19</f>
-        <v>1.4133212694985073</v>
+        <v>1.4137036508417438</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>106</v>
@@ -6548,35 +6645,38 @@
       <c r="I9" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="16">
         <f>'Iran Workbook'!A20</f>
         <v>1999</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="66">
         <f>'Iran Workbook'!G20</f>
         <v>8</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="67">
         <f>'Iran Workbook'!H20</f>
         <v>1.2171307596077299</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="67">
         <f>'Iran Workbook'!I20</f>
-        <v>1.2474506596280401</v>
-      </c>
-      <c r="E10" s="69">
+        <v>1.1535537145767982</v>
+      </c>
+      <c r="E10" s="67">
         <f>'Iran Workbook'!J20</f>
-        <v>1.1535537145767982</v>
-      </c>
-      <c r="F10" s="69">
+        <v>1.2474506450804785</v>
+      </c>
+      <c r="F10" s="67">
         <f>'Iran Workbook'!K20</f>
-        <v>1.4930924441439997</v>
-      </c>
-      <c r="G10" s="69">
+        <v>1.4965058998303231</v>
+      </c>
+      <c r="G10" s="67">
         <f>'Iran Workbook'!L20</f>
-        <v>1.4896945558019052</v>
+        <v>1.4901502749727695</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>106</v>
@@ -6584,35 +6684,38 @@
       <c r="I10" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="16">
         <f>'Iran Workbook'!A21</f>
         <v>2000</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="66">
         <f>'Iran Workbook'!G21</f>
         <v>9</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="67">
         <f>'Iran Workbook'!H21</f>
         <v>1.2797242561828028</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="67">
         <f>'Iran Workbook'!I21</f>
-        <v>1.3427875425389963</v>
-      </c>
-      <c r="E11" s="69">
+        <v>1.1887396444944904</v>
+      </c>
+      <c r="E11" s="67">
         <f>'Iran Workbook'!J21</f>
-        <v>1.1887396444944904</v>
-      </c>
-      <c r="F11" s="69">
+        <v>1.3427875426021263</v>
+      </c>
+      <c r="F11" s="67">
         <f>'Iran Workbook'!K21</f>
-        <v>1.5533641508547886</v>
-      </c>
-      <c r="G11" s="69">
+        <v>1.5560989999636801</v>
+      </c>
+      <c r="G11" s="67">
         <f>'Iran Workbook'!L21</f>
-        <v>1.5490435507138622</v>
+        <v>1.5494051805105273</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>106</v>
@@ -6620,35 +6723,38 @@
       <c r="I11" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="16">
         <f>'Iran Workbook'!A22</f>
         <v>2001</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="66">
         <f>'Iran Workbook'!G22</f>
         <v>10</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="67">
         <f>'Iran Workbook'!H22</f>
         <v>1.3266846879948211</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="67">
         <f>'Iran Workbook'!I22</f>
-        <v>1.4046770603141765</v>
-      </c>
-      <c r="E12" s="69">
+        <v>1.2378857342019893</v>
+      </c>
+      <c r="E12" s="67">
         <f>'Iran Workbook'!J22</f>
-        <v>1.2378857342019893</v>
-      </c>
-      <c r="F12" s="69">
+        <v>1.4046771040381612</v>
+      </c>
+      <c r="F12" s="67">
         <f>'Iran Workbook'!K22</f>
-        <v>1.6601333947971149</v>
-      </c>
-      <c r="G12" s="69">
+        <v>1.6635605320156388</v>
+      </c>
+      <c r="G12" s="67">
         <f>'Iran Workbook'!L22</f>
-        <v>1.6546666155646617</v>
+        <v>1.6551196721661519</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>106</v>
@@ -6656,35 +6762,38 @@
       <c r="I12" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="16">
         <f>'Iran Workbook'!A23</f>
         <v>2002</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="66">
         <f>'Iran Workbook'!G23</f>
         <v>11</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="67">
         <f>'Iran Workbook'!H23</f>
         <v>1.4263968716374038</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="67">
         <f>'Iran Workbook'!I23</f>
-        <v>1.4662256175957016</v>
-      </c>
-      <c r="E13" s="69">
+        <v>1.2994879219282018</v>
+      </c>
+      <c r="E13" s="67">
         <f>'Iran Workbook'!J23</f>
-        <v>1.2994879219282018</v>
-      </c>
-      <c r="F13" s="69">
+        <v>1.4662256242124556</v>
+      </c>
+      <c r="F13" s="67">
         <f>'Iran Workbook'!K23</f>
-        <v>1.8141182902068866</v>
-      </c>
-      <c r="G13" s="69">
+        <v>1.8190034559936956</v>
+      </c>
+      <c r="G13" s="67">
         <f>'Iran Workbook'!L23</f>
-        <v>1.8078514341786631</v>
+        <v>1.8085005699296726</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>106</v>
@@ -6692,35 +6801,38 @@
       <c r="I13" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="16">
         <f>'Iran Workbook'!A24</f>
         <v>2003</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="66">
         <f>'Iran Workbook'!G24</f>
         <v>12</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="67">
         <f>'Iran Workbook'!H24</f>
         <v>1.5278761952252229</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="67">
         <f>'Iran Workbook'!I24</f>
-        <v>1.5669526919341685</v>
-      </c>
-      <c r="E14" s="69">
+        <v>1.3727713879728678</v>
+      </c>
+      <c r="E14" s="67">
         <f>'Iran Workbook'!J24</f>
-        <v>1.3727713879728678</v>
-      </c>
-      <c r="F14" s="69">
+        <v>1.5669527354415114</v>
+      </c>
+      <c r="F14" s="67">
         <f>'Iran Workbook'!K24</f>
-        <v>1.9103783137711257</v>
-      </c>
-      <c r="G14" s="69">
+        <v>1.9151848972041365</v>
+      </c>
+      <c r="G14" s="67">
         <f>'Iran Workbook'!L24</f>
-        <v>1.9033636908722122</v>
+        <v>1.9040005312156616</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>106</v>
@@ -6728,35 +6840,38 @@
       <c r="I14" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="16">
         <f>'Iran Workbook'!A25</f>
         <v>2004</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="66">
         <f>'Iran Workbook'!G25</f>
         <v>13</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="67">
         <f>'Iran Workbook'!H25</f>
         <v>1.6055603670752083</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="67">
         <f>'Iran Workbook'!I25</f>
-        <v>1.7123166506427665</v>
-      </c>
-      <c r="E15" s="69">
+        <v>1.4523552910265691</v>
+      </c>
+      <c r="E15" s="67">
         <f>'Iran Workbook'!J25</f>
-        <v>1.4523552910265691</v>
-      </c>
-      <c r="F15" s="69">
+        <v>1.7123166508885288</v>
+      </c>
+      <c r="F15" s="67">
         <f>'Iran Workbook'!K25</f>
-        <v>1.9853788836602095</v>
-      </c>
-      <c r="G15" s="69">
+        <v>1.988985776194522</v>
+      </c>
+      <c r="G15" s="67">
         <f>'Iran Workbook'!L25</f>
-        <v>1.9772245577257619</v>
+        <v>1.9776961335304841</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>106</v>
@@ -6764,35 +6879,38 @@
       <c r="I15" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="16">
         <f>'Iran Workbook'!A26</f>
         <v>2005</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="66">
         <f>'Iran Workbook'!G26</f>
         <v>14</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="67">
         <f>'Iran Workbook'!H26</f>
         <v>1.6797889929926777</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="67">
         <f>'Iran Workbook'!I26</f>
-        <v>1.7569037609417837</v>
-      </c>
-      <c r="E16" s="69">
+        <v>1.5352797662135713</v>
+      </c>
+      <c r="E16" s="67">
         <f>'Iran Workbook'!J26</f>
-        <v>1.5352797662135713</v>
-      </c>
-      <c r="F16" s="69">
+        <v>1.7569037569931252</v>
+      </c>
+      <c r="F16" s="67">
         <f>'Iran Workbook'!K26</f>
-        <v>2.2660322074050629</v>
-      </c>
-      <c r="G16" s="69">
+        <v>2.2734187837172928</v>
+      </c>
+      <c r="G16" s="67">
         <f>'Iran Workbook'!L26</f>
-        <v>2.2563568498671258</v>
+        <v>2.2573379344636728</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>106</v>
@@ -6800,35 +6918,38 @@
       <c r="I16" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="16">
         <f>'Iran Workbook'!A27</f>
         <v>2006</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="66">
         <f>'Iran Workbook'!G27</f>
         <v>15</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="67">
         <f>'Iran Workbook'!H27</f>
         <v>1.7787925710136561</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="67">
         <f>'Iran Workbook'!I27</f>
-        <v>1.7594397255454477</v>
-      </c>
-      <c r="E17" s="69">
+        <v>1.618542052065739</v>
+      </c>
+      <c r="E17" s="67">
         <f>'Iran Workbook'!J27</f>
-        <v>1.618542052065739</v>
-      </c>
-      <c r="F17" s="69">
+        <v>1.7594397758824338</v>
+      </c>
+      <c r="F17" s="67">
         <f>'Iran Workbook'!K27</f>
-        <v>2.3692211778245698</v>
-      </c>
-      <c r="G17" s="69">
+        <v>2.3782745936048397</v>
+      </c>
+      <c r="G17" s="67">
         <f>'Iran Workbook'!L27</f>
-        <v>2.3603968679979945</v>
+        <v>2.3616059698059657</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>106</v>
@@ -6836,35 +6957,38 @@
       <c r="I17" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="16">
         <f>'Iran Workbook'!A28</f>
         <v>2007</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="66">
         <f>'Iran Workbook'!G28</f>
         <v>16</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="67">
         <f>'Iran Workbook'!H28</f>
         <v>1.9179767122448801</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="67">
         <f>'Iran Workbook'!I28</f>
-        <v>1.8044560764088737</v>
-      </c>
-      <c r="E18" s="69">
+        <v>1.7074130673744605</v>
+      </c>
+      <c r="E18" s="67">
         <f>'Iran Workbook'!J28</f>
-        <v>1.7074130673744605</v>
-      </c>
-      <c r="F18" s="69">
+        <v>1.8044561053690826</v>
+      </c>
+      <c r="F18" s="67">
         <f>'Iran Workbook'!K28</f>
-        <v>2.4265382700477449</v>
-      </c>
-      <c r="G18" s="69">
+        <v>2.4357701852027778</v>
+      </c>
+      <c r="G18" s="67">
         <f>'Iran Workbook'!L28</f>
-        <v>2.4170610401815762</v>
+        <v>2.418292934837758</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>106</v>
@@ -6872,35 +6996,38 @@
       <c r="I18" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="16">
         <f>'Iran Workbook'!A29</f>
         <v>2008</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="66">
         <f>'Iran Workbook'!G29</f>
         <v>17</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="67">
         <f>'Iran Workbook'!H29</f>
         <v>1.9620939733529292</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="67">
         <f>'Iran Workbook'!I29</f>
-        <v>1.7369485738188386</v>
-      </c>
-      <c r="E19" s="69">
+        <v>1.8001715863696077</v>
+      </c>
+      <c r="E19" s="67">
         <f>'Iran Workbook'!J29</f>
-        <v>1.8001715863696077</v>
-      </c>
-      <c r="F19" s="69">
+        <v>1.7369485759342249</v>
+      </c>
+      <c r="F19" s="67">
         <f>'Iran Workbook'!K29</f>
-        <v>2.5111489570806875</v>
-      </c>
-      <c r="G19" s="69">
+        <v>2.5228589645233384</v>
+      </c>
+      <c r="G19" s="67">
         <f>'Iran Workbook'!L29</f>
-        <v>2.5051898221084539</v>
+        <v>2.5067656309120383</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>106</v>
@@ -6908,35 +7035,38 @@
       <c r="I19" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="16">
         <f>'Iran Workbook'!A30</f>
         <v>2009</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="66">
         <f>'Iran Workbook'!G30</f>
         <v>18</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="67">
         <f>'Iran Workbook'!H30</f>
         <v>1.9974105276050005</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="67">
         <f>'Iran Workbook'!I30</f>
-        <v>1.7804433297070139</v>
-      </c>
-      <c r="E20" s="69">
+        <v>1.8938657872865223</v>
+      </c>
+      <c r="E20" s="67">
         <f>'Iran Workbook'!J30</f>
-        <v>1.8938657872865223</v>
-      </c>
-      <c r="F20" s="69">
+        <v>1.7804433072068904</v>
+      </c>
+      <c r="F20" s="67">
         <f>'Iran Workbook'!K30</f>
-        <v>2.7749953290954816</v>
-      </c>
-      <c r="G20" s="69">
+        <v>2.7902337269664645</v>
+      </c>
+      <c r="G20" s="67">
         <f>'Iran Workbook'!L30</f>
-        <v>2.7667340690155244</v>
+        <v>2.7687835848208988</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>106</v>
@@ -6944,35 +7074,38 @@
       <c r="I20" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="16">
         <f>'Iran Workbook'!A31</f>
         <v>2010</v>
       </c>
-      <c r="B21" s="68">
+      <c r="B21" s="66">
         <f>'Iran Workbook'!G31</f>
         <v>19</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="67">
         <f>'Iran Workbook'!H31</f>
         <v>2.055533685011679</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="67">
         <f>'Iran Workbook'!I31</f>
-        <v>1.8469810485629561</v>
-      </c>
-      <c r="E21" s="69">
+        <v>1.9875921606477385</v>
+      </c>
+      <c r="E21" s="67">
         <f>'Iran Workbook'!J31</f>
-        <v>1.9875921606477385</v>
-      </c>
-      <c r="F21" s="69">
+        <v>1.8469810667781668</v>
+      </c>
+      <c r="F21" s="67">
         <f>'Iran Workbook'!K31</f>
-        <v>2.7954868154686792</v>
-      </c>
-      <c r="G21" s="69">
+        <v>2.809955102096009</v>
+      </c>
+      <c r="G21" s="67">
         <f>'Iran Workbook'!L31</f>
-        <v>2.7852540327935258</v>
+        <v>2.7871947529624541</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>106</v>
@@ -6980,41 +7113,47 @@
       <c r="I21" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="16">
         <f>'Iran Workbook'!A32</f>
         <v>2011</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="66">
         <f>'Iran Workbook'!G32</f>
         <v>20</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="67">
         <f>'Iran Workbook'!H32</f>
         <v>2.097105214812482</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="67">
         <f>'Iran Workbook'!I32</f>
-        <v>1.8675789210862097</v>
-      </c>
-      <c r="E22" s="69">
+        <v>2.0860746936915198</v>
+      </c>
+      <c r="E22" s="67">
         <f>'Iran Workbook'!J32</f>
-        <v>2.0860746936915198</v>
-      </c>
-      <c r="F22" s="69">
+        <v>1.8675789761098966</v>
+      </c>
+      <c r="F22" s="67">
         <f>'Iran Workbook'!K32</f>
-        <v>3.0885054378839611</v>
-      </c>
-      <c r="G22" s="69">
+        <v>3.107350258445607</v>
+      </c>
+      <c r="G22" s="67">
         <f>'Iran Workbook'!L32</f>
-        <v>3.0822590377981136</v>
+        <v>3.0848022772986505</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>106</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>108</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -7035,26 +7174,26 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="14" customFormat="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="14" customFormat="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:53">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="63" t="s">
         <v>96</v>
       </c>
     </row>
@@ -7138,8 +7277,8 @@
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
       <c r="D6" s="92"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="6">
@@ -7624,50 +7763,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO72"/>
   <sheetViews>
-    <sheetView topLeftCell="AE23" workbookViewId="0">
-      <selection activeCell="AO32" sqref="AO32:AO52"/>
+    <sheetView topLeftCell="AD23" workbookViewId="0">
+      <selection activeCell="AO52" sqref="AO52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="27" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="30.85546875" style="65" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="30.83203125" style="63" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26" style="18" customWidth="1"/>
-    <col min="15" max="15" width="28.7109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" style="18" customWidth="1"/>
     <col min="16" max="16" width="25" style="18" customWidth="1"/>
-    <col min="17" max="18" width="25" style="65" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="18" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" style="18" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" style="18" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" style="18" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="18" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="18" customWidth="1"/>
+    <col min="17" max="18" width="25" style="63" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="16.83203125" style="18" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" style="18" customWidth="1"/>
+    <col min="22" max="22" width="15.5" style="18" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" style="18" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" style="18" customWidth="1"/>
     <col min="25" max="25" width="14" style="18" customWidth="1"/>
-    <col min="26" max="27" width="14" style="65" customWidth="1"/>
+    <col min="26" max="27" width="14" style="63" customWidth="1"/>
     <col min="28" max="29" width="16" style="18" customWidth="1"/>
     <col min="30" max="30" width="15" style="18" customWidth="1"/>
-    <col min="31" max="31" width="15.42578125" style="18" customWidth="1"/>
-    <col min="32" max="32" width="18.7109375" style="18" customWidth="1"/>
-    <col min="33" max="33" width="20.7109375" style="18" customWidth="1"/>
-    <col min="34" max="34" width="18.7109375" style="18" customWidth="1"/>
-    <col min="35" max="35" width="16.28515625" style="18" customWidth="1"/>
-    <col min="36" max="36" width="15.42578125" style="18" customWidth="1"/>
-    <col min="37" max="37" width="15.42578125" style="65" customWidth="1"/>
-    <col min="38" max="38" width="20.42578125" style="65" customWidth="1"/>
-    <col min="39" max="39" width="19.85546875" style="18" customWidth="1"/>
+    <col min="31" max="31" width="15.5" style="18" customWidth="1"/>
+    <col min="32" max="32" width="18.6640625" style="18" customWidth="1"/>
+    <col min="33" max="33" width="20.6640625" style="18" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" style="18" customWidth="1"/>
+    <col min="35" max="35" width="16.33203125" style="18" customWidth="1"/>
+    <col min="36" max="36" width="15.5" style="18" customWidth="1"/>
+    <col min="37" max="37" width="15.5" style="63" customWidth="1"/>
+    <col min="38" max="38" width="20.5" style="63" customWidth="1"/>
+    <col min="39" max="39" width="19.83203125" style="18" customWidth="1"/>
     <col min="40" max="40" width="22" style="18" customWidth="1"/>
-    <col min="41" max="42" width="16.28515625" style="18" customWidth="1"/>
-    <col min="43" max="16384" width="8.85546875" style="18"/>
+    <col min="41" max="42" width="16.33203125" style="18" customWidth="1"/>
+    <col min="43" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7705,8 +7844,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="65" customFormat="1">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:7" s="63" customFormat="1">
+      <c r="A8" s="89" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7738,7 +7877,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="26"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
@@ -7749,11 +7888,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="86">
+      <c r="B16" s="84">
         <v>1.0880000000000001</v>
       </c>
       <c r="C16" s="28">
@@ -7762,17 +7901,17 @@
       <c r="D16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="58">
         <v>19110</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="18">
+    <row r="17" spans="1:41" ht="16">
       <c r="A17" s="13" t="s">
         <v>14</v>
       </c>
@@ -7785,10 +7924,10 @@
       <c r="D17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="55">
         <v>7215</v>
       </c>
       <c r="G17" s="31" t="s">
@@ -7808,10 +7947,10 @@
       <c r="D18" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="55">
         <f>4.184/1000000000</f>
         <v>4.1840000000000004E-9</v>
       </c>
@@ -7819,7 +7958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="18">
+    <row r="19" spans="1:41" ht="16">
       <c r="A19" s="13" t="s">
         <v>19</v>
       </c>
@@ -7832,15 +7971,15 @@
       <c r="D19" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="55">
         <v>0.4</v>
       </c>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:41" ht="18.75">
+    <row r="20" spans="1:41" ht="17">
       <c r="A20" s="13" t="s">
         <v>45</v>
       </c>
@@ -7853,16 +7992,16 @@
       <c r="D20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="85" t="s">
+      <c r="E20" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="55">
         <v>0.2</v>
       </c>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:41" ht="18.75">
-      <c r="A21" s="79" t="s">
+    <row r="21" spans="1:41" ht="17">
+      <c r="A21" s="77" t="s">
         <v>109</v>
       </c>
       <c r="B21" s="34">
@@ -7874,19 +8013,19 @@
       <c r="D21" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="85" t="s">
+      <c r="E21" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="55">
         <v>12.5</v>
       </c>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:41" ht="18.75" thickBot="1">
-      <c r="A22" s="80" t="s">
+    <row r="22" spans="1:41" ht="17" thickBot="1">
+      <c r="A22" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="79">
         <v>1.07</v>
       </c>
       <c r="C22" s="33">
@@ -7896,15 +8035,15 @@
       <c r="D22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="55">
         <v>9</v>
       </c>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:41" ht="15.75" thickBot="1">
+    <row r="23" spans="1:41" ht="15" thickBot="1">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="30">
@@ -7914,39 +8053,39 @@
       <c r="D23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="88" t="s">
+      <c r="E23" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="56">
         <f>F22/F21</f>
         <v>0.72</v>
       </c>
-      <c r="G23" s="58"/>
-    </row>
-    <row r="24" spans="1:41" ht="17.25">
+      <c r="G23" s="57"/>
+    </row>
+    <row r="24" spans="1:41" ht="16">
       <c r="A24" s="36"/>
       <c r="C24" s="35">
         <v>300</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="80" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:41" s="65" customFormat="1" ht="17.25">
+    <row r="25" spans="1:41" s="63" customFormat="1" ht="16">
       <c r="A25" s="36"/>
       <c r="C25" s="35">
         <v>785.22</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="80" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:41" s="65" customFormat="1" ht="18" thickBot="1">
+    <row r="26" spans="1:41" s="63" customFormat="1" ht="17" thickBot="1">
       <c r="A26" s="36"/>
-      <c r="C26" s="83">
+      <c r="C26" s="81">
         <v>880</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="82" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7958,7 +8097,7 @@
       <c r="A28" s="36"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:41" ht="15.75" thickBot="1">
+    <row r="29" spans="1:41" ht="15" thickBot="1">
       <c r="E29" s="16" t="s">
         <v>49</v>
       </c>
@@ -7968,177 +8107,183 @@
       <c r="X29" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="AD29" s="18" t="s">
+        <v>125</v>
+      </c>
       <c r="AI29" s="18" t="s">
         <v>79</v>
       </c>
+      <c r="AO29" s="18" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="30" spans="1:41" ht="15" customHeight="1">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="100" t="s">
+      <c r="C30" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="96" t="s">
+      <c r="E30" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="96" t="s">
+      <c r="F30" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="96" t="s">
+      <c r="G30" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="96" t="s">
+      <c r="H30" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="96" t="s">
+      <c r="I30" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="96" t="s">
+      <c r="J30" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="K30" s="96" t="s">
+      <c r="K30" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="L30" s="96" t="s">
+      <c r="L30" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="98" t="s">
+      <c r="M30" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="N30" s="102" t="s">
+      <c r="N30" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="O30" s="100" t="s">
+      <c r="O30" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="P30" s="96" t="s">
+      <c r="P30" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="Q30" s="96" t="s">
+      <c r="Q30" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="R30" s="96" t="s">
+      <c r="R30" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="S30" s="96" t="s">
+      <c r="S30" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="T30" s="102" t="s">
+      <c r="T30" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="U30" s="100" t="s">
+      <c r="U30" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="V30" s="96" t="s">
+      <c r="V30" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="W30" s="96" t="s">
+      <c r="W30" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="X30" s="96" t="s">
+      <c r="X30" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Y30" s="96" t="s">
+      <c r="Y30" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="Z30" s="96" t="s">
+      <c r="Z30" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="AA30" s="96" t="s">
+      <c r="AA30" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="AB30" s="96" t="s">
+      <c r="AB30" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="AC30" s="96" t="s">
+      <c r="AC30" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="AD30" s="98" t="s">
+      <c r="AD30" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="AE30" s="102" t="s">
+      <c r="AE30" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AF30" s="100" t="s">
+      <c r="AF30" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="AG30" s="96" t="s">
+      <c r="AG30" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="AH30" s="96" t="s">
+      <c r="AH30" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="AI30" s="96" t="s">
+      <c r="AI30" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="AJ30" s="96" t="s">
+      <c r="AJ30" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="AK30" s="96" t="s">
+      <c r="AK30" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="AL30" s="96" t="s">
+      <c r="AL30" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="AM30" s="96" t="s">
+      <c r="AM30" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="AN30" s="96" t="s">
+      <c r="AN30" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="AO30" s="98" t="s">
+      <c r="AO30" s="101" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" s="103"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="97"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="97"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="97"/>
-      <c r="Y31" s="97"/>
-      <c r="Z31" s="97"/>
-      <c r="AA31" s="97"/>
-      <c r="AB31" s="97"/>
-      <c r="AC31" s="97"/>
-      <c r="AD31" s="99"/>
-      <c r="AE31" s="103"/>
-      <c r="AF31" s="101"/>
-      <c r="AG31" s="97"/>
-      <c r="AH31" s="97"/>
-      <c r="AI31" s="97"/>
-      <c r="AJ31" s="97"/>
-      <c r="AK31" s="97"/>
-      <c r="AL31" s="97"/>
-      <c r="AM31" s="97"/>
-      <c r="AN31" s="97"/>
-      <c r="AO31" s="99"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="103"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="98"/>
+      <c r="AJ31" s="98"/>
+      <c r="AK31" s="98"/>
+      <c r="AL31" s="98"/>
+      <c r="AM31" s="98"/>
+      <c r="AN31" s="98"/>
+      <c r="AO31" s="103"/>
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="38">
@@ -8177,10 +8322,10 @@
       <c r="L32" s="42">
         <v>2970</v>
       </c>
-      <c r="M32" s="71">
+      <c r="M32" s="69">
         <v>12335739.900000002</v>
       </c>
-      <c r="N32" s="53">
+      <c r="N32" s="52">
         <v>26232</v>
       </c>
       <c r="O32" s="43">
@@ -8239,31 +8384,31 @@
         <v>8056.9132100181359</v>
       </c>
       <c r="AD32" s="46">
-        <f t="shared" ref="AD32:AD52" si="8">SUM(T32:AC32)</f>
-        <v>3696764.7773871496</v>
+        <f>SUM(T32:AB32)</f>
+        <v>3688707.8641771316</v>
       </c>
       <c r="AE32" s="47">
-        <f t="shared" ref="AE32:AE52" si="9">B32*1000*N32*1000*$C$22*$C$18</f>
+        <f t="shared" ref="AE32:AE52" si="8">B32*1000*N32*1000*$C$22*$C$18</f>
         <v>47317.624622820964</v>
       </c>
       <c r="AF32" s="43">
-        <f t="shared" ref="AF32:AF52" si="10">C32*1000*365*O32*1000*$C$22*$C$18</f>
+        <f t="shared" ref="AF32:AF52" si="9">C32*1000*365*O32*1000*$C$22*$C$18</f>
         <v>2437189.6118713063</v>
       </c>
       <c r="AG32" s="43">
-        <f t="shared" ref="AG32:AG52" si="11">D32*1000000000*P32*$C$22*$C$18</f>
+        <f t="shared" ref="AG32:AG52" si="10">D32*1000000000*P32*$C$22*$C$18</f>
         <v>903566.71083359991</v>
       </c>
       <c r="AH32" s="43">
-        <f t="shared" ref="AH32:AH52" si="12">E32*1000000000000000*$C$22*$C$18</f>
+        <f t="shared" ref="AH32:AH52" si="11">E32*1000000000000000*$C$22*$C$18</f>
         <v>76913.571465000001</v>
       </c>
       <c r="AI32" s="43">
-        <f t="shared" ref="AI32:AI52" si="13">F32*1000000000000000*$C$22*$C$18</f>
+        <f t="shared" ref="AI32:AI52" si="12">F32*1000000000000000*$C$22*$C$18</f>
         <v>0</v>
       </c>
       <c r="AJ32" s="43">
-        <f t="shared" ref="AJ32:AJ52" si="14">G32*$C$24*S32*(1/1000)*$C$18</f>
+        <f t="shared" ref="AJ32:AJ52" si="13">G32*$C$24*S32*(1/1000)*$C$18</f>
         <v>1668.348</v>
       </c>
       <c r="AK32" s="43">
@@ -8275,16 +8420,16 @@
         <v>0</v>
       </c>
       <c r="AM32" s="43">
-        <f t="shared" ref="AM32:AM52" si="15">((H32*$F$16*365*$F$18)+(I32*$F$17*365*$F$18))</f>
+        <f t="shared" ref="AM32:AM52" si="14">((H32*$F$16*365*$F$18)+(I32*$F$17*365*$F$18))</f>
         <v>8950.7102941152007</v>
       </c>
       <c r="AN32" s="43">
-        <f t="shared" ref="AN32:AN52" si="16">L32*$F$18*365*M32</f>
+        <f t="shared" ref="AN32:AN52" si="15">L32*$F$18*365*M32</f>
         <v>55950.786180681498</v>
       </c>
       <c r="AO32" s="46">
-        <f>SUM(AE32:AN32)</f>
-        <v>3531557.3632675242</v>
+        <f>SUM(AE32:AM32)</f>
+        <v>3475606.5770868426</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -8324,10 +8469,10 @@
       <c r="L33" s="42">
         <v>2970</v>
       </c>
-      <c r="M33" s="71">
+      <c r="M33" s="69">
         <v>12241009.852500003</v>
       </c>
-      <c r="N33" s="53">
+      <c r="N33" s="52">
         <v>26232</v>
       </c>
       <c r="O33" s="43">
@@ -8370,11 +8515,11 @@
         <v>1786.4651999999996</v>
       </c>
       <c r="Z33" s="43">
-        <f t="shared" ref="Z33:Z52" si="17">AK33*$B$21</f>
+        <f t="shared" ref="Z33:Z52" si="16">AK33*$B$21</f>
         <v>0</v>
       </c>
       <c r="AA33" s="43">
-        <f t="shared" ref="AA33:AA52" si="18">AL33*$B$22</f>
+        <f t="shared" ref="AA33:AA52" si="17">AL33*$B$22</f>
         <v>0</v>
       </c>
       <c r="AB33" s="43">
@@ -8386,31 +8531,31 @@
         <v>7995.0416257211627</v>
       </c>
       <c r="AD33" s="46">
+        <f t="shared" ref="AD33:AD52" si="18">SUM(T33:AB33)</f>
+        <v>3818702.6128853904</v>
+      </c>
+      <c r="AE33" s="47">
         <f t="shared" si="8"/>
-        <v>3826697.6545111118</v>
-      </c>
-      <c r="AE33" s="47">
+        <v>49636.218643296437</v>
+      </c>
+      <c r="AF33" s="43">
         <f t="shared" si="9"/>
-        <v>49636.218643296437</v>
-      </c>
-      <c r="AF33" s="43">
+        <v>2454831.4983379119</v>
+      </c>
+      <c r="AG33" s="43">
         <f t="shared" si="10"/>
-        <v>2454831.4983379119</v>
-      </c>
-      <c r="AG33" s="43">
+        <v>983645.44984859996</v>
+      </c>
+      <c r="AH33" s="43">
         <f t="shared" si="11"/>
-        <v>983645.44984859996</v>
-      </c>
-      <c r="AH33" s="43">
+        <v>102952.34984299997</v>
+      </c>
+      <c r="AI33" s="43">
         <f t="shared" si="12"/>
-        <v>102952.34984299997</v>
-      </c>
-      <c r="AI33" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="43">
-        <f t="shared" si="14"/>
         <v>1553.4479999999999</v>
       </c>
       <c r="AK33" s="43">
@@ -8422,16 +8567,16 @@
         <v>0</v>
       </c>
       <c r="AM33" s="43">
+        <f t="shared" si="14"/>
+        <v>7335.3159984000013</v>
+      </c>
+      <c r="AN33" s="43">
         <f t="shared" si="15"/>
-        <v>7335.3159984000013</v>
-      </c>
-      <c r="AN33" s="43">
-        <f t="shared" si="16"/>
         <v>55521.122400841399</v>
       </c>
       <c r="AO33" s="46">
-        <f t="shared" ref="AO33:AO52" si="21">SUM(AE33:AN33)</f>
-        <v>3655475.4030720498</v>
+        <f t="shared" ref="AO33:AO52" si="21">SUM(AE33:AM33)</f>
+        <v>3599954.2806712086</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -8471,10 +8616,10 @@
       <c r="L34" s="42">
         <v>3005</v>
       </c>
-      <c r="M34" s="71">
+      <c r="M34" s="69">
         <v>12654192.969600003</v>
       </c>
-      <c r="N34" s="53">
+      <c r="N34" s="52">
         <v>26232</v>
       </c>
       <c r="O34" s="43">
@@ -8517,11 +8662,11 @@
         <v>1886.8877999999997</v>
       </c>
       <c r="Z34" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB34" s="43">
@@ -8533,31 +8678,31 @@
         <v>8362.304192597805</v>
       </c>
       <c r="AD34" s="46">
+        <f t="shared" si="18"/>
+        <v>3934234.3348527546</v>
+      </c>
+      <c r="AE34" s="47">
         <f t="shared" si="8"/>
-        <v>3942596.6390453526</v>
-      </c>
-      <c r="AE34" s="47">
+        <v>38378.834116989929</v>
+      </c>
+      <c r="AF34" s="43">
         <f t="shared" si="9"/>
-        <v>38378.834116989929</v>
-      </c>
-      <c r="AF34" s="43">
+        <v>2512038.4022690221</v>
+      </c>
+      <c r="AG34" s="43">
         <f t="shared" si="10"/>
-        <v>2512038.4022690221</v>
-      </c>
-      <c r="AG34" s="43">
+        <v>1045419.4425311207</v>
+      </c>
+      <c r="AH34" s="43">
         <f t="shared" si="11"/>
-        <v>1045419.4425311207</v>
-      </c>
-      <c r="AH34" s="43">
+        <v>105779.89952099998</v>
+      </c>
+      <c r="AI34" s="43">
         <f t="shared" si="12"/>
-        <v>105779.89952099998</v>
-      </c>
-      <c r="AI34" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="43">
-        <f t="shared" si="14"/>
         <v>1640.7719999999999</v>
       </c>
       <c r="AK34" s="43">
@@ -8569,16 +8714,16 @@
         <v>0</v>
       </c>
       <c r="AM34" s="43">
+        <f t="shared" si="14"/>
+        <v>5394.8753636075999</v>
+      </c>
+      <c r="AN34" s="43">
         <f t="shared" si="15"/>
-        <v>5394.8753636075999</v>
-      </c>
-      <c r="AN34" s="43">
-        <f t="shared" si="16"/>
         <v>58071.556893040302</v>
       </c>
       <c r="AO34" s="46">
         <f t="shared" si="21"/>
-        <v>3766723.7826947798</v>
+        <v>3708652.2258017394</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -8618,10 +8763,10 @@
       <c r="L35" s="42">
         <v>3005</v>
       </c>
-      <c r="M35" s="71">
+      <c r="M35" s="69">
         <v>12737954.673000002</v>
       </c>
-      <c r="N35" s="53">
+      <c r="N35" s="52">
         <v>26232</v>
       </c>
       <c r="O35" s="43">
@@ -8664,11 +8809,11 @@
         <v>1876.3169999999998</v>
       </c>
       <c r="Z35" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB35" s="43">
@@ -8680,31 +8825,31 @@
         <v>8417.6566631349342</v>
       </c>
       <c r="AD35" s="46">
+        <f t="shared" si="18"/>
+        <v>4195515.4409521865</v>
+      </c>
+      <c r="AE35" s="47">
         <f t="shared" si="8"/>
-        <v>4203933.0976153212</v>
-      </c>
-      <c r="AE35" s="47">
+        <v>56714.032376818563</v>
+      </c>
+      <c r="AF35" s="43">
         <f t="shared" si="9"/>
-        <v>56714.032376818563</v>
-      </c>
-      <c r="AF35" s="43">
+        <v>2561140.6586618819</v>
+      </c>
+      <c r="AG35" s="43">
         <f t="shared" si="10"/>
-        <v>2561140.6586618819</v>
-      </c>
-      <c r="AG35" s="43">
+        <v>1251200.3546243517</v>
+      </c>
+      <c r="AH35" s="43">
         <f t="shared" si="11"/>
-        <v>1251200.3546243517</v>
-      </c>
-      <c r="AH35" s="43">
+        <v>80226.446834000002</v>
+      </c>
+      <c r="AI35" s="43">
         <f t="shared" si="12"/>
-        <v>80226.446834000002</v>
-      </c>
-      <c r="AI35" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="43">
-        <f t="shared" si="14"/>
         <v>1631.58</v>
       </c>
       <c r="AK35" s="43">
@@ -8716,16 +8861,16 @@
         <v>0</v>
       </c>
       <c r="AM35" s="43">
+        <f t="shared" si="14"/>
+        <v>5888.7858467100004</v>
+      </c>
+      <c r="AN35" s="43">
         <f t="shared" si="15"/>
-        <v>5888.7858467100004</v>
-      </c>
-      <c r="AN35" s="43">
-        <f t="shared" si="16"/>
         <v>58455.949049548151</v>
       </c>
       <c r="AO35" s="46">
         <f t="shared" si="21"/>
-        <v>4015257.8073933106</v>
+        <v>3956801.8583437623</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -8765,10 +8910,10 @@
       <c r="L36" s="42">
         <v>3040</v>
       </c>
-      <c r="M36" s="71">
+      <c r="M36" s="69">
         <v>13170467.925600002</v>
       </c>
-      <c r="N36" s="53">
+      <c r="N36" s="52">
         <v>25200</v>
       </c>
       <c r="O36" s="43">
@@ -8811,11 +8956,11 @@
         <v>1622.6177999999998</v>
       </c>
       <c r="Z36" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB36" s="43">
@@ -8827,31 +8972,31 @@
         <v>8804.8471483682315</v>
       </c>
       <c r="AD36" s="46">
+        <f t="shared" si="18"/>
+        <v>4350231.965154781</v>
+      </c>
+      <c r="AE36" s="47">
         <f t="shared" si="8"/>
-        <v>4359036.8123031491</v>
-      </c>
-      <c r="AE36" s="47">
+        <v>49178.154812018176</v>
+      </c>
+      <c r="AF36" s="43">
         <f t="shared" si="9"/>
-        <v>49178.154812018176</v>
-      </c>
-      <c r="AF36" s="43">
+        <v>2585299.6897624535</v>
+      </c>
+      <c r="AG36" s="43">
         <f t="shared" si="10"/>
-        <v>2585299.6897624535</v>
-      </c>
-      <c r="AG36" s="43">
+        <v>1384963.8802750078</v>
+      </c>
+      <c r="AH36" s="43">
         <f t="shared" si="11"/>
-        <v>1384963.8802750078</v>
-      </c>
-      <c r="AH36" s="43">
+        <v>78358.997979499996</v>
+      </c>
+      <c r="AI36" s="43">
         <f t="shared" si="12"/>
-        <v>78358.997979499996</v>
-      </c>
-      <c r="AI36" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="43">
-        <f t="shared" si="14"/>
         <v>1410.972</v>
       </c>
       <c r="AK36" s="43">
@@ -8863,16 +9008,16 @@
         <v>0</v>
       </c>
       <c r="AM36" s="43">
+        <f t="shared" si="14"/>
+        <v>5888.7858467100004</v>
+      </c>
+      <c r="AN36" s="43">
         <f t="shared" si="15"/>
-        <v>5888.7858467100004</v>
-      </c>
-      <c r="AN36" s="43">
-        <f t="shared" si="16"/>
         <v>61144.771863668269</v>
       </c>
       <c r="AO36" s="46">
         <f t="shared" si="21"/>
-        <v>4166245.2525393581</v>
+        <v>4105100.4806756899</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -8912,10 +9057,10 @@
       <c r="L37" s="42">
         <v>3040</v>
       </c>
-      <c r="M37" s="71">
+      <c r="M37" s="69">
         <v>13276064.253800001</v>
       </c>
-      <c r="N37" s="53">
+      <c r="N37" s="52">
         <v>24403.200000000001</v>
       </c>
       <c r="O37" s="43">
@@ -8958,11 +9103,11 @@
         <v>1516.9097999999997</v>
       </c>
       <c r="Z37" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB37" s="43">
@@ -8974,31 +9119,31 @@
         <v>8875.4414153663474</v>
       </c>
       <c r="AD37" s="46">
+        <f t="shared" si="18"/>
+        <v>4502741.0579072516</v>
+      </c>
+      <c r="AE37" s="47">
         <f t="shared" si="8"/>
-        <v>4511616.4993226184</v>
-      </c>
-      <c r="AE37" s="47">
+        <v>51454.612877574793</v>
+      </c>
+      <c r="AF37" s="43">
         <f t="shared" si="9"/>
-        <v>51454.612877574793</v>
-      </c>
-      <c r="AF37" s="43">
+        <v>2536512.9023240348</v>
+      </c>
+      <c r="AG37" s="43">
         <f t="shared" si="10"/>
-        <v>2536512.9023240348</v>
-      </c>
-      <c r="AG37" s="43">
+        <v>1578160.7597370937</v>
+      </c>
+      <c r="AH37" s="43">
         <f t="shared" si="11"/>
-        <v>1578160.7597370937</v>
-      </c>
-      <c r="AH37" s="43">
+        <v>79920.48063749999</v>
+      </c>
+      <c r="AI37" s="43">
         <f t="shared" si="12"/>
-        <v>79920.48063749999</v>
-      </c>
-      <c r="AI37" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="43">
-        <f t="shared" si="14"/>
         <v>1319.0519999999999</v>
       </c>
       <c r="AK37" s="43">
@@ -9010,16 +9155,16 @@
         <v>0</v>
       </c>
       <c r="AM37" s="43">
+        <f t="shared" si="14"/>
+        <v>5888.7858467100004</v>
+      </c>
+      <c r="AN37" s="43">
         <f t="shared" si="15"/>
-        <v>5888.7858467100004</v>
-      </c>
-      <c r="AN37" s="43">
-        <f t="shared" si="16"/>
         <v>61635.009828932954</v>
       </c>
       <c r="AO37" s="46">
         <f t="shared" si="21"/>
-        <v>4314891.6032518465</v>
+        <v>4253256.5934229139</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -9059,10 +9204,10 @@
       <c r="L38" s="42">
         <v>3040</v>
       </c>
-      <c r="M38" s="71">
+      <c r="M38" s="69">
         <v>14125906.439999999</v>
       </c>
-      <c r="N38" s="53">
+      <c r="N38" s="52">
         <v>23245.119999999999</v>
       </c>
       <c r="O38" s="43">
@@ -9105,11 +9250,11 @@
         <v>1511.6243999999997</v>
       </c>
       <c r="Z38" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB38" s="43">
@@ -9121,31 +9266,31 @@
         <v>9443.5860395358177</v>
       </c>
       <c r="AD38" s="46">
+        <f t="shared" si="18"/>
+        <v>5033142.1572858104</v>
+      </c>
+      <c r="AE38" s="47">
         <f t="shared" si="8"/>
-        <v>5042585.7433253461</v>
-      </c>
-      <c r="AE38" s="47">
+        <v>51202.539225834342</v>
+      </c>
+      <c r="AF38" s="43">
         <f t="shared" si="9"/>
-        <v>51202.539225834342</v>
-      </c>
-      <c r="AF38" s="43">
+        <v>2770103.8883885983</v>
+      </c>
+      <c r="AG38" s="43">
         <f t="shared" si="10"/>
-        <v>2770103.8883885983</v>
-      </c>
-      <c r="AG38" s="43">
+        <v>1853188.027514762</v>
+      </c>
+      <c r="AH38" s="43">
         <f t="shared" si="11"/>
-        <v>1853188.027514762</v>
-      </c>
-      <c r="AH38" s="43">
+        <v>73885.561175499985</v>
+      </c>
+      <c r="AI38" s="43">
         <f t="shared" si="12"/>
-        <v>73885.561175499985</v>
-      </c>
-      <c r="AI38" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="43">
-        <f t="shared" si="14"/>
         <v>1314.4559999999999</v>
       </c>
       <c r="AK38" s="43">
@@ -9157,16 +9302,16 @@
         <v>0</v>
       </c>
       <c r="AM38" s="43">
+        <f t="shared" si="14"/>
+        <v>5998.9704407100007</v>
+      </c>
+      <c r="AN38" s="43">
         <f t="shared" si="15"/>
-        <v>5998.9704407100007</v>
-      </c>
-      <c r="AN38" s="43">
-        <f t="shared" si="16"/>
         <v>65580.458607887616</v>
       </c>
       <c r="AO38" s="46">
         <f t="shared" si="21"/>
-        <v>4821273.9013532931</v>
+        <v>4755693.4427454052</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -9206,10 +9351,10 @@
       <c r="L39" s="42">
         <v>3050</v>
       </c>
-      <c r="M39" s="71">
+      <c r="M39" s="69">
         <v>14874142.339199997</v>
       </c>
-      <c r="N39" s="53">
+      <c r="N39" s="52">
         <v>23245</v>
       </c>
       <c r="O39" s="43">
@@ -9252,11 +9397,11 @@
         <v>1199.7857999999999</v>
       </c>
       <c r="Z39" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB39" s="43">
@@ -9268,31 +9413,31 @@
         <v>9976.5137383105885</v>
       </c>
       <c r="AD39" s="46">
+        <f t="shared" si="18"/>
+        <v>5214739.7744758623</v>
+      </c>
+      <c r="AE39" s="47">
         <f t="shared" si="8"/>
-        <v>5224716.2882141732</v>
-      </c>
-      <c r="AE39" s="47">
+        <v>52256.59857919738</v>
+      </c>
+      <c r="AF39" s="43">
         <f t="shared" si="9"/>
-        <v>52256.59857919738</v>
-      </c>
-      <c r="AF39" s="43">
+        <v>2760561.9558590367</v>
+      </c>
+      <c r="AG39" s="43">
         <f t="shared" si="10"/>
-        <v>2760561.9558590367</v>
-      </c>
-      <c r="AG39" s="43">
+        <v>2036146.0811866017</v>
+      </c>
+      <c r="AH39" s="43">
         <f t="shared" si="11"/>
-        <v>2036146.0811866017</v>
-      </c>
-      <c r="AH39" s="43">
+        <v>74887.864233</v>
+      </c>
+      <c r="AI39" s="43">
         <f t="shared" si="12"/>
-        <v>74887.864233</v>
-      </c>
-      <c r="AI39" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="43">
-        <f t="shared" si="14"/>
         <v>1043.2919999999999</v>
       </c>
       <c r="AK39" s="43">
@@ -9304,16 +9449,16 @@
         <v>0</v>
       </c>
       <c r="AM39" s="43">
+        <f t="shared" si="14"/>
+        <v>5305.1052947100006</v>
+      </c>
+      <c r="AN39" s="43">
         <f t="shared" si="15"/>
-        <v>5305.1052947100006</v>
-      </c>
-      <c r="AN39" s="43">
-        <f t="shared" si="16"/>
         <v>69281.345404934633</v>
       </c>
       <c r="AO39" s="46">
         <f t="shared" si="21"/>
-        <v>4999482.2425574809</v>
+        <v>4930200.8971525459</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -9353,10 +9498,10 @@
       <c r="L40" s="42">
         <v>3050</v>
       </c>
-      <c r="M40" s="71">
+      <c r="M40" s="69">
         <v>15388226.695800001</v>
       </c>
-      <c r="N40" s="53">
+      <c r="N40" s="52">
         <v>23245.120149999999</v>
       </c>
       <c r="O40" s="43">
@@ -9399,11 +9544,11 @@
         <v>998.9405999999999</v>
       </c>
       <c r="Z40" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB40" s="43">
@@ -9415,31 +9560,31 @@
         <v>10321.324856108882</v>
       </c>
       <c r="AD40" s="46">
+        <f t="shared" si="18"/>
+        <v>5496729.03809777</v>
+      </c>
+      <c r="AE40" s="47">
         <f t="shared" si="8"/>
-        <v>5507050.3629538789</v>
-      </c>
-      <c r="AE40" s="47">
+        <v>56906.729639556404</v>
+      </c>
+      <c r="AF40" s="43">
         <f t="shared" si="9"/>
-        <v>56906.729639556404</v>
-      </c>
-      <c r="AF40" s="43">
+        <v>2732268.9277934874</v>
+      </c>
+      <c r="AG40" s="43">
         <f t="shared" si="10"/>
-        <v>2732268.9277934874</v>
-      </c>
-      <c r="AG40" s="43">
+        <v>2352879.916037851</v>
+      </c>
+      <c r="AH40" s="43">
         <f t="shared" si="11"/>
-        <v>2352879.916037851</v>
-      </c>
-      <c r="AH40" s="43">
+        <v>52932.151994499989</v>
+      </c>
+      <c r="AI40" s="43">
         <f t="shared" si="12"/>
-        <v>52932.151994499989</v>
-      </c>
-      <c r="AI40" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="43">
-        <f t="shared" si="14"/>
         <v>868.64400000000001</v>
       </c>
       <c r="AK40" s="43">
@@ -9451,16 +9596,16 @@
         <v>0</v>
       </c>
       <c r="AM40" s="43">
+        <f t="shared" si="14"/>
+        <v>5409.3786341400009</v>
+      </c>
+      <c r="AN40" s="43">
         <f t="shared" si="15"/>
-        <v>5409.3786341400009</v>
-      </c>
-      <c r="AN40" s="43">
-        <f t="shared" si="16"/>
         <v>71675.86705631169</v>
       </c>
       <c r="AO40" s="46">
         <f t="shared" si="21"/>
-        <v>5272941.6151558468</v>
+        <v>5201265.7480995348</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -9500,10 +9645,10 @@
       <c r="L41" s="43">
         <v>3060</v>
       </c>
-      <c r="M41" s="71">
+      <c r="M41" s="69">
         <v>16564277.866500001</v>
       </c>
-      <c r="N41" s="53">
+      <c r="N41" s="52">
         <v>23245.120149999999</v>
       </c>
       <c r="O41" s="43">
@@ -9546,11 +9691,11 @@
         <v>285.41159999999996</v>
       </c>
       <c r="Z41" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB41" s="43">
@@ -9562,31 +9707,31 @@
         <v>11146.562771761251</v>
       </c>
       <c r="AD41" s="46">
+        <f t="shared" si="18"/>
+        <v>5715303.0741459699</v>
+      </c>
+      <c r="AE41" s="47">
         <f t="shared" si="8"/>
-        <v>5726449.6369177308</v>
-      </c>
-      <c r="AE41" s="47">
+        <v>57474.445268160984</v>
+      </c>
+      <c r="AF41" s="43">
         <f t="shared" si="9"/>
-        <v>57474.445268160984</v>
-      </c>
-      <c r="AF41" s="43">
+        <v>2830484.0748737254</v>
+      </c>
+      <c r="AG41" s="43">
         <f t="shared" si="10"/>
-        <v>2830484.0748737254</v>
-      </c>
-      <c r="AG41" s="43">
+        <v>2474458.4936391381</v>
+      </c>
+      <c r="AH41" s="43">
         <f t="shared" si="11"/>
-        <v>2474458.4936391381</v>
-      </c>
-      <c r="AH41" s="43">
+        <v>39416.886555999998</v>
+      </c>
+      <c r="AI41" s="43">
         <f t="shared" si="12"/>
-        <v>39416.886555999998</v>
-      </c>
-      <c r="AI41" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="43">
-        <f t="shared" si="14"/>
         <v>248.184</v>
       </c>
       <c r="AK41" s="43">
@@ -9598,16 +9743,16 @@
         <v>0</v>
       </c>
       <c r="AM41" s="43">
+        <f t="shared" si="14"/>
+        <v>6305.8345350000009</v>
+      </c>
+      <c r="AN41" s="43">
         <f t="shared" si="15"/>
-        <v>6305.8345350000009</v>
-      </c>
-      <c r="AN41" s="43">
-        <f t="shared" si="16"/>
         <v>77406.685915008697</v>
       </c>
       <c r="AO41" s="46">
         <f t="shared" si="21"/>
-        <v>5485794.604787034</v>
+        <v>5408387.9188720249</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -9647,10 +9792,10 @@
       <c r="L42" s="43">
         <v>3060</v>
       </c>
-      <c r="M42" s="71">
+      <c r="M42" s="69">
         <v>17327731.398899999</v>
       </c>
-      <c r="N42" s="53">
+      <c r="N42" s="52">
         <v>23245.120149999999</v>
       </c>
       <c r="O42" s="43">
@@ -9693,11 +9838,11 @@
         <v>285.41159999999996</v>
       </c>
       <c r="Z42" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB42" s="43">
@@ -9709,31 +9854,31 @@
         <v>11660.311864284629</v>
       </c>
       <c r="AD42" s="46">
+        <f t="shared" si="18"/>
+        <v>6105252.9508735603</v>
+      </c>
+      <c r="AE42" s="47">
         <f t="shared" si="8"/>
-        <v>6116913.2627378451</v>
-      </c>
-      <c r="AE42" s="47">
+        <v>44498.088918802903</v>
+      </c>
+      <c r="AF42" s="43">
         <f t="shared" si="9"/>
-        <v>44498.088918802903</v>
-      </c>
-      <c r="AF42" s="43">
+        <v>2914381.9923488484</v>
+      </c>
+      <c r="AG42" s="43">
         <f t="shared" si="10"/>
-        <v>2914381.9923488484</v>
-      </c>
-      <c r="AG42" s="43">
+        <v>2761289.5068149897</v>
+      </c>
+      <c r="AH42" s="43">
         <f t="shared" si="11"/>
-        <v>2761289.5068149897</v>
-      </c>
-      <c r="AH42" s="43">
+        <v>55158.319837999989</v>
+      </c>
+      <c r="AI42" s="43">
         <f t="shared" si="12"/>
-        <v>55158.319837999989</v>
-      </c>
-      <c r="AI42" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="43">
-        <f t="shared" si="14"/>
         <v>248.184</v>
       </c>
       <c r="AK42" s="43">
@@ -9745,16 +9890,16 @@
         <v>0</v>
       </c>
       <c r="AM42" s="43">
+        <f t="shared" si="14"/>
+        <v>6305.8345350000009</v>
+      </c>
+      <c r="AN42" s="43">
         <f t="shared" si="15"/>
-        <v>6305.8345350000009</v>
-      </c>
-      <c r="AN42" s="43">
-        <f t="shared" si="16"/>
         <v>80974.387946421033</v>
       </c>
       <c r="AO42" s="46">
         <f t="shared" si="21"/>
-        <v>5862856.3144020624</v>
+        <v>5781881.9264556412</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -9794,10 +9939,10 @@
       <c r="L43" s="43">
         <v>3060</v>
       </c>
-      <c r="M43" s="71">
+      <c r="M43" s="69">
         <v>18086977.934999999</v>
       </c>
-      <c r="N43" s="53">
+      <c r="N43" s="52">
         <v>23245.120149999999</v>
       </c>
       <c r="O43" s="43">
@@ -9840,11 +9985,11 @@
         <v>544.39619999999991</v>
       </c>
       <c r="Z43" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB43" s="43">
@@ -9856,31 +10001,31 @@
         <v>12171.229952117284</v>
       </c>
       <c r="AD43" s="46">
+        <f t="shared" si="18"/>
+        <v>6671030.2746684076</v>
+      </c>
+      <c r="AE43" s="47">
         <f t="shared" si="8"/>
-        <v>6683201.5046205251</v>
-      </c>
-      <c r="AE43" s="47">
+        <v>49931.938086448376</v>
+      </c>
+      <c r="AF43" s="43">
         <f t="shared" si="9"/>
-        <v>49931.938086448376</v>
-      </c>
-      <c r="AF43" s="43">
+        <v>3061830.3404932544</v>
+      </c>
+      <c r="AG43" s="43">
         <f t="shared" si="10"/>
-        <v>3061830.3404932544</v>
-      </c>
-      <c r="AG43" s="43">
+        <v>3117369.1596601824</v>
+      </c>
+      <c r="AH43" s="43">
         <f t="shared" si="11"/>
-        <v>3117369.1596601824</v>
-      </c>
-      <c r="AH43" s="43">
+        <v>86229.714620500003</v>
+      </c>
+      <c r="AI43" s="43">
         <f t="shared" si="12"/>
-        <v>86229.714620500003</v>
-      </c>
-      <c r="AI43" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="43">
-        <f t="shared" si="14"/>
         <v>473.38799999999998</v>
       </c>
       <c r="AK43" s="43">
@@ -9892,16 +10037,16 @@
         <v>0</v>
       </c>
       <c r="AM43" s="43">
+        <f t="shared" si="14"/>
+        <v>6305.8345350000009</v>
+      </c>
+      <c r="AN43" s="43">
         <f t="shared" si="15"/>
-        <v>6305.8345350000009</v>
-      </c>
-      <c r="AN43" s="43">
-        <f t="shared" si="16"/>
         <v>84522.430223036688</v>
       </c>
       <c r="AO43" s="46">
         <f t="shared" si="21"/>
-        <v>6406662.8056184221</v>
+        <v>6322140.3753953855</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -9941,10 +10086,10 @@
       <c r="L44" s="43">
         <v>3055</v>
       </c>
-      <c r="M44" s="71">
+      <c r="M44" s="69">
         <v>19329521.379999999</v>
       </c>
-      <c r="N44" s="53">
+      <c r="N44" s="52">
         <v>23245.120149999999</v>
       </c>
       <c r="O44" s="43">
@@ -9987,11 +10132,11 @@
         <v>491.54219999999998</v>
       </c>
       <c r="Z44" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB44" s="43">
@@ -10003,31 +10148,31 @@
         <v>12986.118081349896</v>
       </c>
       <c r="AD44" s="46">
+        <f t="shared" si="18"/>
+        <v>7023301.7328926474</v>
+      </c>
+      <c r="AE44" s="47">
         <f t="shared" si="8"/>
-        <v>7036287.8509739973</v>
-      </c>
-      <c r="AE44" s="47">
+        <v>56014.605255498514</v>
+      </c>
+      <c r="AF44" s="43">
         <f t="shared" si="9"/>
-        <v>56014.605255498514</v>
-      </c>
-      <c r="AF44" s="43">
+        <v>3232586.2052471018</v>
+      </c>
+      <c r="AG44" s="43">
         <f t="shared" si="10"/>
-        <v>3232586.2052471018</v>
-      </c>
-      <c r="AG44" s="43">
+        <v>3242095.4027009853</v>
+      </c>
+      <c r="AH44" s="43">
         <f t="shared" si="11"/>
-        <v>3242095.4027009853</v>
-      </c>
-      <c r="AH44" s="43">
+        <v>118999.74932149998</v>
+      </c>
+      <c r="AI44" s="43">
         <f t="shared" si="12"/>
-        <v>118999.74932149998</v>
-      </c>
-      <c r="AI44" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="43">
-        <f t="shared" si="14"/>
         <v>427.428</v>
       </c>
       <c r="AK44" s="43">
@@ -10039,16 +10184,16 @@
         <v>0</v>
       </c>
       <c r="AM44" s="43">
+        <f t="shared" si="14"/>
+        <v>6305.8345350000009</v>
+      </c>
+      <c r="AN44" s="43">
         <f t="shared" si="15"/>
-        <v>6305.8345350000009</v>
-      </c>
-      <c r="AN44" s="43">
-        <f t="shared" si="16"/>
         <v>90181.37556492984</v>
       </c>
       <c r="AO44" s="46">
         <f t="shared" si="21"/>
-        <v>6746610.6006250158</v>
+        <v>6656429.2250600858</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -10088,10 +10233,10 @@
       <c r="L45" s="43">
         <v>3055</v>
       </c>
-      <c r="M45" s="71">
+      <c r="M45" s="69">
         <v>21122692.831799999</v>
       </c>
-      <c r="N45" s="53">
+      <c r="N45" s="52">
         <v>23245.120149999999</v>
       </c>
       <c r="O45" s="43">
@@ -10134,11 +10279,11 @@
         <v>406.97579999999994</v>
       </c>
       <c r="Z45" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB45" s="43">
@@ -10150,31 +10295,31 @@
         <v>14190.82127887834</v>
       </c>
       <c r="AD45" s="46">
+        <f t="shared" si="18"/>
+        <v>7295143.2807066031</v>
+      </c>
+      <c r="AE45" s="47">
         <f t="shared" si="8"/>
-        <v>7309334.1019854816</v>
-      </c>
-      <c r="AE45" s="47">
+        <v>54041.117699265516</v>
+      </c>
+      <c r="AF45" s="43">
         <f t="shared" si="9"/>
-        <v>54041.117699265516</v>
-      </c>
-      <c r="AF45" s="43">
+        <v>3375140.8052401249</v>
+      </c>
+      <c r="AG45" s="43">
         <f t="shared" si="10"/>
-        <v>3375140.8052401249</v>
-      </c>
-      <c r="AG45" s="43">
+        <v>3365641.2712019691</v>
+      </c>
+      <c r="AH45" s="43">
         <f t="shared" si="11"/>
-        <v>3365641.2712019691</v>
-      </c>
-      <c r="AH45" s="43">
+        <v>111740.96507349997</v>
+      </c>
+      <c r="AI45" s="43">
         <f t="shared" si="12"/>
-        <v>111740.96507349997</v>
-      </c>
-      <c r="AI45" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="43">
-        <f t="shared" si="14"/>
         <v>353.892</v>
       </c>
       <c r="AK45" s="43">
@@ -10186,16 +10331,16 @@
         <v>0</v>
       </c>
       <c r="AM45" s="43">
+        <f t="shared" si="14"/>
+        <v>6013.994259000001</v>
+      </c>
+      <c r="AN45" s="43">
         <f t="shared" si="15"/>
-        <v>6013.994259000001</v>
-      </c>
-      <c r="AN45" s="43">
-        <f t="shared" si="16"/>
         <v>98547.369992210704</v>
       </c>
       <c r="AO45" s="46">
         <f t="shared" si="21"/>
-        <v>7011479.4154660702</v>
+        <v>6912932.0454738596</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -10235,10 +10380,10 @@
       <c r="L46" s="43">
         <v>3055</v>
       </c>
-      <c r="M46" s="71">
+      <c r="M46" s="69">
         <v>21672707.775600001</v>
       </c>
-      <c r="N46" s="53">
+      <c r="N46" s="52">
         <v>23245.120149999999</v>
       </c>
       <c r="O46" s="43">
@@ -10281,11 +10426,11 @@
         <v>380.54879999999997</v>
       </c>
       <c r="Z46" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB46" s="43">
@@ -10297,31 +10442,31 @@
         <v>14560.336843505003</v>
       </c>
       <c r="AD46" s="46">
+        <f t="shared" si="18"/>
+        <v>8326660.1909615118</v>
+      </c>
+      <c r="AE46" s="47">
         <f t="shared" si="8"/>
-        <v>8341220.5278050164</v>
-      </c>
-      <c r="AE46" s="47">
+        <v>66611.962920370206</v>
+      </c>
+      <c r="AF46" s="43">
         <f t="shared" si="9"/>
-        <v>66611.962920370206</v>
-      </c>
-      <c r="AF46" s="43">
+        <v>3529135.0945089832</v>
+      </c>
+      <c r="AG46" s="43">
         <f t="shared" si="10"/>
-        <v>3529135.0945089832</v>
-      </c>
-      <c r="AG46" s="43">
+        <v>4130523.9730042405</v>
+      </c>
+      <c r="AH46" s="43">
         <f t="shared" si="11"/>
-        <v>4130523.9730042405</v>
-      </c>
-      <c r="AH46" s="43">
+        <v>168893.34046799998</v>
+      </c>
+      <c r="AI46" s="43">
         <f t="shared" si="12"/>
-        <v>168893.34046799998</v>
-      </c>
-      <c r="AI46" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="43">
-        <f t="shared" si="14"/>
         <v>330.91199999999998</v>
       </c>
       <c r="AK46" s="43">
@@ -10333,16 +10478,16 @@
         <v>0</v>
       </c>
       <c r="AM46" s="43">
+        <f t="shared" si="14"/>
+        <v>6013.994259000001</v>
+      </c>
+      <c r="AN46" s="43">
         <f t="shared" si="15"/>
-        <v>6013.994259000001</v>
-      </c>
-      <c r="AN46" s="43">
-        <f t="shared" si="16"/>
         <v>101113.45030211809</v>
       </c>
       <c r="AO46" s="46">
         <f t="shared" si="21"/>
-        <v>8002622.7274627108</v>
+        <v>7901509.2771605924</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -10382,10 +10527,10 @@
       <c r="L47" s="43">
         <v>3050</v>
       </c>
-      <c r="M47" s="71">
+      <c r="M47" s="69">
         <v>21703991.445</v>
       </c>
-      <c r="N47" s="53">
+      <c r="N47" s="52">
         <v>23245.120149999999</v>
       </c>
       <c r="O47" s="43">
@@ -10428,11 +10573,11 @@
         <v>343.55099999999999</v>
       </c>
       <c r="Z47" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB47" s="43">
@@ -10444,31 +10589,31 @@
         <v>14557.489359004212</v>
       </c>
       <c r="AD47" s="46">
+        <f t="shared" si="18"/>
+        <v>8711274.5129109267</v>
+      </c>
+      <c r="AE47" s="47">
         <f t="shared" si="8"/>
-        <v>8725832.0022699311</v>
-      </c>
-      <c r="AE47" s="47">
+        <v>66584.928877853177</v>
+      </c>
+      <c r="AF47" s="43">
         <f t="shared" si="9"/>
-        <v>66584.928877853177</v>
-      </c>
-      <c r="AF47" s="43">
+        <v>3725211.6453245133</v>
+      </c>
+      <c r="AG47" s="43">
         <f t="shared" si="10"/>
-        <v>3725211.6453245133</v>
-      </c>
-      <c r="AG47" s="43">
+        <v>4277283.874121652</v>
+      </c>
+      <c r="AH47" s="43">
         <f t="shared" si="11"/>
-        <v>4277283.874121652</v>
-      </c>
-      <c r="AH47" s="43">
+        <v>190553.63706849996</v>
+      </c>
+      <c r="AI47" s="43">
         <f t="shared" si="12"/>
-        <v>190553.63706849996</v>
-      </c>
-      <c r="AI47" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="43">
-        <f t="shared" si="14"/>
         <v>298.74</v>
       </c>
       <c r="AK47" s="43">
@@ -10480,16 +10625,16 @@
         <v>0</v>
       </c>
       <c r="AM47" s="43">
+        <f t="shared" si="14"/>
+        <v>6013.994259000001</v>
+      </c>
+      <c r="AN47" s="43">
         <f t="shared" si="15"/>
-        <v>6013.994259000001</v>
-      </c>
-      <c r="AN47" s="43">
-        <f t="shared" si="16"/>
         <v>101093.67610419591</v>
       </c>
       <c r="AO47" s="46">
         <f t="shared" si="21"/>
-        <v>8367040.4957557153</v>
+        <v>8265946.8196515189</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -10529,10 +10674,10 @@
       <c r="L48" s="43">
         <v>3050</v>
       </c>
-      <c r="M48" s="71">
+      <c r="M48" s="69">
         <v>22259301.176800001</v>
       </c>
-      <c r="N48" s="53">
+      <c r="N48" s="52">
         <v>23245.120149999999</v>
       </c>
       <c r="O48" s="43">
@@ -10575,11 +10720,11 @@
         <v>354.12179999999995</v>
       </c>
       <c r="Z48" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB48" s="43">
@@ -10591,31 +10736,31 @@
         <v>14929.951517963102</v>
       </c>
       <c r="AD48" s="46">
+        <f t="shared" si="18"/>
+        <v>8920376.1666200329</v>
+      </c>
+      <c r="AE48" s="47">
         <f t="shared" si="8"/>
-        <v>8935306.1181379966</v>
-      </c>
-      <c r="AE48" s="47">
+        <v>70423.767575002057</v>
+      </c>
+      <c r="AF48" s="43">
         <f t="shared" si="9"/>
-        <v>70423.767575002057</v>
-      </c>
-      <c r="AF48" s="43">
+        <v>3754193.9071863792</v>
+      </c>
+      <c r="AG48" s="43">
         <f t="shared" si="10"/>
-        <v>3754193.9071863792</v>
-      </c>
-      <c r="AG48" s="43">
+        <v>4447651.2660354292</v>
+      </c>
+      <c r="AH48" s="43">
         <f t="shared" si="11"/>
-        <v>4447651.2660354292</v>
-      </c>
-      <c r="AH48" s="43">
+        <v>187188.00890699995</v>
+      </c>
+      <c r="AI48" s="43">
         <f t="shared" si="12"/>
-        <v>187188.00890699995</v>
-      </c>
-      <c r="AI48" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="43">
-        <f t="shared" si="14"/>
         <v>307.93199999999996</v>
       </c>
       <c r="AK48" s="43">
@@ -10627,16 +10772,16 @@
         <v>0</v>
       </c>
       <c r="AM48" s="43">
+        <f t="shared" si="14"/>
+        <v>6013.994259000001</v>
+      </c>
+      <c r="AN48" s="43">
         <f t="shared" si="15"/>
-        <v>6013.994259000001</v>
-      </c>
-      <c r="AN48" s="43">
-        <f t="shared" si="16"/>
         <v>103680.21887474376</v>
       </c>
       <c r="AO48" s="46">
         <f t="shared" si="21"/>
-        <v>8569459.0948375538</v>
+        <v>8465778.8759628106</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -10676,10 +10821,10 @@
       <c r="L49" s="43">
         <v>3050</v>
       </c>
-      <c r="M49" s="71">
+      <c r="M49" s="69">
         <v>21426545.852400001</v>
       </c>
-      <c r="N49" s="53">
+      <c r="N49" s="52">
         <v>23245.120149999999</v>
       </c>
       <c r="O49" s="43">
@@ -10722,11 +10867,11 @@
         <v>354.12179999999995</v>
       </c>
       <c r="Z49" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB49" s="43">
@@ -10738,31 +10883,31 @@
         <v>14371.398645127361</v>
       </c>
       <c r="AD49" s="46">
+        <f t="shared" si="18"/>
+        <v>9246726.096394185</v>
+      </c>
+      <c r="AE49" s="47">
         <f t="shared" si="8"/>
-        <v>9261097.4950393122</v>
-      </c>
-      <c r="AE49" s="47">
+        <v>65476.531663161069</v>
+      </c>
+      <c r="AF49" s="43">
         <f t="shared" si="9"/>
-        <v>65476.531663161069</v>
-      </c>
-      <c r="AF49" s="43">
+        <v>3949570.5899110758</v>
+      </c>
+      <c r="AG49" s="43">
         <f t="shared" si="10"/>
-        <v>3949570.5899110758</v>
-      </c>
-      <c r="AG49" s="43">
+        <v>4693562.6284975791</v>
+      </c>
+      <c r="AH49" s="43">
         <f t="shared" si="11"/>
-        <v>4693562.6284975791</v>
-      </c>
-      <c r="AH49" s="43">
+        <v>53533.533828999993</v>
+      </c>
+      <c r="AI49" s="43">
         <f t="shared" si="12"/>
-        <v>53533.533828999993</v>
-      </c>
-      <c r="AI49" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="43">
-        <f t="shared" si="14"/>
         <v>307.93199999999996</v>
       </c>
       <c r="AK49" s="43">
@@ -10774,16 +10919,16 @@
         <v>0</v>
       </c>
       <c r="AM49" s="43">
+        <f t="shared" si="14"/>
+        <v>6013.994259000001</v>
+      </c>
+      <c r="AN49" s="43">
         <f t="shared" si="15"/>
-        <v>6013.994259000001</v>
-      </c>
-      <c r="AN49" s="43">
-        <f t="shared" si="16"/>
         <v>99801.379480051124</v>
       </c>
       <c r="AO49" s="46">
         <f t="shared" si="21"/>
-        <v>8868266.5896398667</v>
+        <v>8768465.2101598158</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -10823,10 +10968,10 @@
       <c r="L50" s="43">
         <v>3050</v>
       </c>
-      <c r="M50" s="71">
+      <c r="M50" s="69">
         <v>21963085.544399999</v>
       </c>
-      <c r="N50" s="53">
+      <c r="N50" s="52">
         <v>23245.120149999999</v>
       </c>
       <c r="O50" s="43">
@@ -10869,11 +11014,11 @@
         <v>317.12399999999997</v>
       </c>
       <c r="Z50" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB50" s="43">
@@ -10885,31 +11030,31 @@
         <v>14731.271200217809</v>
       </c>
       <c r="AD50" s="46">
+        <f t="shared" si="18"/>
+        <v>10213233.7835334</v>
+      </c>
+      <c r="AE50" s="47">
         <f t="shared" si="8"/>
-        <v>10227965.054733617</v>
-      </c>
-      <c r="AE50" s="47">
+        <v>47796.246029864218</v>
+      </c>
+      <c r="AF50" s="43">
         <f t="shared" si="9"/>
-        <v>47796.246029864218</v>
-      </c>
-      <c r="AF50" s="43">
+        <v>4004111.0521951341</v>
+      </c>
+      <c r="AG50" s="43">
         <f t="shared" si="10"/>
-        <v>4004111.0521951341</v>
-      </c>
-      <c r="AG50" s="43">
+        <v>5563498.6643436803</v>
+      </c>
+      <c r="AH50" s="43">
         <f t="shared" si="11"/>
-        <v>5563498.6643436803</v>
-      </c>
-      <c r="AH50" s="43">
+        <v>76058.976226500003</v>
+      </c>
+      <c r="AI50" s="43">
         <f t="shared" si="12"/>
-        <v>76058.976226500003</v>
-      </c>
-      <c r="AI50" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="43">
-        <f t="shared" si="14"/>
         <v>275.76</v>
       </c>
       <c r="AK50" s="43">
@@ -10921,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="AM50" s="43">
+        <f t="shared" si="14"/>
+        <v>6013.994259000001</v>
+      </c>
+      <c r="AN50" s="43">
         <f t="shared" si="15"/>
-        <v>6013.994259000001</v>
-      </c>
-      <c r="AN50" s="43">
-        <f t="shared" si="16"/>
         <v>102300.49444595701</v>
       </c>
       <c r="AO50" s="46">
         <f t="shared" si="21"/>
-        <v>9800055.1875001341</v>
+        <v>9697754.6930541769</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -10970,10 +11115,10 @@
       <c r="L51" s="43">
         <v>3050</v>
       </c>
-      <c r="M51" s="71">
+      <c r="M51" s="69">
         <v>22783878.039999999</v>
       </c>
-      <c r="N51" s="53">
+      <c r="N51" s="52">
         <v>23245.120149999999</v>
       </c>
       <c r="O51" s="43">
@@ -11016,11 +11161,11 @@
         <v>280.12619999999998</v>
       </c>
       <c r="Z51" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="43">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA51" s="43">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB51" s="43">
@@ -11032,31 +11177,31 @@
         <v>15281.800260779162</v>
       </c>
       <c r="AD51" s="46">
+        <f t="shared" si="18"/>
+        <v>10281147.204245841</v>
+      </c>
+      <c r="AE51" s="47">
         <f t="shared" si="8"/>
-        <v>10296429.00450662</v>
-      </c>
-      <c r="AE51" s="47">
+        <v>58069.194939282577</v>
+      </c>
+      <c r="AF51" s="43">
         <f t="shared" si="9"/>
-        <v>58069.194939282577</v>
-      </c>
-      <c r="AF51" s="43">
+        <v>3914600.0638409136</v>
+      </c>
+      <c r="AG51" s="43">
         <f t="shared" si="10"/>
-        <v>3914600.0638409136</v>
-      </c>
-      <c r="AG51" s="43">
+        <v>5688618.3655644227</v>
+      </c>
+      <c r="AH51" s="43">
         <f t="shared" si="11"/>
-        <v>5688618.3655644227</v>
-      </c>
-      <c r="AH51" s="43">
+        <v>98753.227559999985</v>
+      </c>
+      <c r="AI51" s="43">
         <f t="shared" si="12"/>
-        <v>98753.227559999985</v>
-      </c>
-      <c r="AI51" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="43">
-        <f t="shared" si="14"/>
         <v>243.58799999999999</v>
       </c>
       <c r="AK51" s="43">
@@ -11068,71 +11213,71 @@
         <v>0</v>
       </c>
       <c r="AM51" s="43">
+        <f t="shared" si="14"/>
+        <v>6013.994259000001</v>
+      </c>
+      <c r="AN51" s="43">
         <f t="shared" si="15"/>
-        <v>6013.994259000001</v>
-      </c>
-      <c r="AN51" s="43">
-        <f t="shared" si="16"/>
         <v>106123.61292207752</v>
       </c>
       <c r="AO51" s="46">
         <f t="shared" si="21"/>
-        <v>9872422.0470856968</v>
-      </c>
-    </row>
-    <row r="52" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A52" s="72">
+        <v>9766298.4341636188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" ht="15" thickBot="1">
+      <c r="A52" s="70">
         <v>2011</v>
       </c>
-      <c r="B52" s="73">
+      <c r="B52" s="71">
         <v>2579.4085799999998</v>
       </c>
-      <c r="C52" s="74">
+      <c r="C52" s="72">
         <v>2028</v>
       </c>
-      <c r="D52" s="74">
+      <c r="D52" s="72">
         <v>5415.2021000000004</v>
       </c>
-      <c r="E52" s="74">
+      <c r="E52" s="72">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="F52" s="74">
-        <v>0</v>
-      </c>
-      <c r="G52" s="76">
+      <c r="F52" s="72">
+        <v>0</v>
+      </c>
+      <c r="G52" s="74">
         <v>53000</v>
       </c>
-      <c r="H52" s="77">
+      <c r="H52" s="75">
         <v>140000</v>
       </c>
-      <c r="I52" s="77">
+      <c r="I52" s="75">
         <v>175000</v>
       </c>
-      <c r="J52" s="77">
-        <v>0</v>
-      </c>
-      <c r="K52" s="90">
-        <v>0</v>
-      </c>
-      <c r="L52" s="75">
+      <c r="J52" s="75">
+        <v>0</v>
+      </c>
+      <c r="K52" s="88">
+        <v>0</v>
+      </c>
+      <c r="L52" s="73">
         <v>3050</v>
       </c>
-      <c r="M52" s="78">
+      <c r="M52" s="76">
         <v>23037968.492000002</v>
       </c>
-      <c r="N52" s="54">
+      <c r="N52" s="53">
         <v>23245.120149999999</v>
       </c>
       <c r="O52" s="48">
         <v>5887.9962800000003</v>
       </c>
-      <c r="P52" s="55">
+      <c r="P52" s="54">
         <v>1056</v>
       </c>
-      <c r="Q52" s="89">
+      <c r="Q52" s="87">
         <v>26.8</v>
       </c>
-      <c r="R52" s="89">
+      <c r="R52" s="87">
         <v>37.799999999999997</v>
       </c>
       <c r="S52" s="50">
@@ -11162,12 +11307,12 @@
         <f t="shared" si="5"/>
         <v>280.12619999999998</v>
       </c>
-      <c r="Z52" s="75">
+      <c r="Z52" s="73">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="73">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA52" s="75">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB52" s="48">
@@ -11178,61 +11323,61 @@
         <f t="shared" si="7"/>
         <v>15452.226012217005</v>
       </c>
-      <c r="AD52" s="51">
+      <c r="AD52" s="104">
+        <f t="shared" si="18"/>
+        <v>11378934.419703057</v>
+      </c>
+      <c r="AE52" s="49">
         <f t="shared" si="8"/>
-        <v>11394386.645715274</v>
-      </c>
-      <c r="AE52" s="49">
+        <v>63259.737479025818</v>
+      </c>
+      <c r="AF52" s="48">
         <f t="shared" si="9"/>
-        <v>63259.737479025818</v>
-      </c>
-      <c r="AF52" s="48">
+        <v>4598368.7170766545</v>
+      </c>
+      <c r="AG52" s="48">
         <f t="shared" si="10"/>
-        <v>4598368.7170766545</v>
-      </c>
-      <c r="AG52" s="48">
+        <v>6033287.7311913716</v>
+      </c>
+      <c r="AH52" s="48">
         <f t="shared" si="11"/>
-        <v>6033287.7311913716</v>
-      </c>
-      <c r="AH52" s="48">
+        <v>98753.227559999985</v>
+      </c>
+      <c r="AI52" s="48">
         <f t="shared" si="12"/>
-        <v>98753.227559999985</v>
-      </c>
-      <c r="AI52" s="48">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="48">
+        <v>243.58799999999999</v>
+      </c>
+      <c r="AK52" s="73">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AL52" s="73">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AM52" s="48">
         <f t="shared" si="14"/>
-        <v>243.58799999999999</v>
-      </c>
-      <c r="AK52" s="75">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AL52" s="75">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AM52" s="48">
+        <v>6013.994259000001</v>
+      </c>
+      <c r="AN52" s="48">
         <f t="shared" si="15"/>
-        <v>6013.994259000001</v>
-      </c>
-      <c r="AN52" s="48">
-        <f t="shared" si="16"/>
         <v>107307.12508484031</v>
       </c>
-      <c r="AO52" s="51">
+      <c r="AO52" s="104">
         <f t="shared" si="21"/>
-        <v>10907234.120650891</v>
+        <v>10799926.995566051</v>
       </c>
     </row>
     <row r="53" spans="1:41">
-      <c r="E53" s="52"/>
+      <c r="E53" s="51"/>
       <c r="AC53" s="43"/>
     </row>
     <row r="54" spans="1:41">
-      <c r="E54" s="52"/>
+      <c r="E54" s="51"/>
       <c r="AC54" s="43"/>
     </row>
     <row r="55" spans="1:41">
@@ -11624,18 +11769,23 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="AM30:AM31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="X30:X31"/>
     <mergeCell ref="N30:N31"/>
@@ -11648,23 +11798,18 @@
     <mergeCell ref="W30:W31"/>
     <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="R30:R31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AM30:AM31"/>
-    <mergeCell ref="AN30:AN31"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/data/Excel Workbooks/Calvin2011/IranDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin2011/IranDataWorkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="280" windowWidth="21840" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="280" windowWidth="21840" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Iran Workbook" sheetId="1" r:id="rId1"/>
@@ -2625,25 +2625,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2652,17 +2655,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="493">
@@ -3650,64 +3650,64 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.992320683779981</c:v>
+                  <c:v>1.003312108620028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.025815481858531</c:v>
+                  <c:v>1.018902033044438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.032605646378779</c:v>
+                  <c:v>1.037884886398395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.06766744697657</c:v>
+                  <c:v>1.062575090191389</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.076227641099988</c:v>
+                  <c:v>1.087678131167556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.145120321481486</c:v>
+                  <c:v>1.132049922197761</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.205776261479054</c:v>
+                  <c:v>1.187271508646047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.247450645080479</c:v>
+                  <c:v>1.249459666114492</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.342787542602126</c:v>
+                  <c:v>1.290875833795251</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.404677104038161</c:v>
+                  <c:v>1.375011606211842</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.466225624212456</c:v>
+                  <c:v>1.444744085950061</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.566952735441511</c:v>
+                  <c:v>1.533316882782821</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.712316650888529</c:v>
+                  <c:v>1.651328065164288</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.756903756993125</c:v>
+                  <c:v>1.69367958899348</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.759439775882434</c:v>
+                  <c:v>1.706897043081449</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.804456105369083</c:v>
+                  <c:v>1.724346738014334</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.736948575934225</c:v>
+                  <c:v>1.671027329007184</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.78044330720689</c:v>
+                  <c:v>1.68215113332116</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.846981066778167</c:v>
+                  <c:v>1.691774280819871</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.867578976109897</c:v>
+                  <c:v>1.731752383217032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4052,11 +4052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2109192088"/>
-        <c:axId val="-2108894984"/>
+        <c:axId val="-2110843592"/>
+        <c:axId val="2086045880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2109192088"/>
+        <c:axId val="-2110843592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4089,12 +4089,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108894984"/>
+        <c:crossAx val="2086045880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2108894984"/>
+        <c:axId val="2086045880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -4128,7 +4128,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109192088"/>
+        <c:crossAx val="-2110843592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="D12" s="68">
         <f>'Employment calcs'!F7</f>
-        <v>12335739.900000002</v>
+        <v>12842686.191818006</v>
       </c>
       <c r="E12" s="65">
         <f>'Exergy calcs'!AO32</f>
@@ -5174,23 +5174,23 @@
         <v>3688707.8641771316</v>
       </c>
       <c r="G12" s="65">
-        <f>A12-$A$12</f>
+        <f t="shared" ref="G12:G32" si="0">A12-$A$12</f>
         <v>0</v>
       </c>
       <c r="H12" s="7">
-        <f>B12/$B$12</f>
+        <f t="shared" ref="H12:H32" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <f>C12/$C$12</f>
+        <f t="shared" ref="I12:I32" si="2">C12/$C$12</f>
         <v>1</v>
       </c>
       <c r="J12" s="7">
-        <f>D12/$D$12</f>
+        <f t="shared" ref="J12:J32" si="3">D12/$D$12</f>
         <v>1</v>
       </c>
       <c r="K12" s="62">
-        <f t="shared" ref="K12:K32" si="0">E12/$E$12</f>
+        <f t="shared" ref="K12:K32" si="4">E12/$E$12</f>
         <v>1</v>
       </c>
       <c r="L12" s="17">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="D13" s="68">
         <f>'Employment calcs'!F8</f>
-        <v>12241009.852500003</v>
+        <v>12885222.563458236</v>
       </c>
       <c r="E13" s="65">
         <f>'Exergy calcs'!AO33</f>
@@ -5235,27 +5235,27 @@
         <v>3818702.6128853904</v>
       </c>
       <c r="G13" s="65">
-        <f>A13-$A$12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13" s="7">
-        <f>B13/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.0425075890787252</v>
       </c>
       <c r="I13" s="7">
-        <f>C13/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0286817340947478</v>
       </c>
       <c r="J13" s="7">
-        <f>D13/$D$12</f>
-        <v>0.9923206837799815</v>
+        <f t="shared" si="3"/>
+        <v>1.0033121086200276</v>
       </c>
       <c r="K13" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.03577726673788</v>
       </c>
       <c r="L13" s="17">
-        <f t="shared" ref="L13:L32" si="1">F13/$F$12</f>
+        <f t="shared" ref="L13:L32" si="5">F13/$F$12</f>
         <v>1.0352412697060405</v>
       </c>
       <c r="N13" s="14"/>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="D14" s="68">
         <f>'Employment calcs'!F9</f>
-        <v>12654192.969600003</v>
+        <v>13085439.070595097</v>
       </c>
       <c r="E14" s="65">
         <f>'Exergy calcs'!AO34</f>
@@ -5296,27 +5296,27 @@
         <v>3934234.3348527546</v>
       </c>
       <c r="G14" s="65">
-        <f>A14-$A$12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H14" s="7">
-        <f>B14/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.0260784365185593</v>
       </c>
       <c r="I14" s="7">
-        <f>C14/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0451808359473445</v>
       </c>
       <c r="J14" s="7">
-        <f>D14/$D$12</f>
-        <v>1.0258154818585306</v>
+        <f t="shared" si="3"/>
+        <v>1.0189020330444378</v>
       </c>
       <c r="K14" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0670517918372191</v>
       </c>
       <c r="L14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0665616469821457</v>
       </c>
       <c r="N14" s="14"/>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="D15" s="68">
         <f>'Employment calcs'!F10</f>
-        <v>12737954.673000002</v>
+        <v>13329229.899245264</v>
       </c>
       <c r="E15" s="65">
         <f>'Exergy calcs'!AO35</f>
@@ -5357,27 +5357,27 @@
         <v>4195515.4409521865</v>
       </c>
       <c r="G15" s="65">
-        <f>A15-$A$12</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H15" s="7">
-        <f>B15/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.0224829191052323</v>
       </c>
       <c r="I15" s="7">
-        <f>C15/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0479449851202445</v>
       </c>
       <c r="J15" s="7">
-        <f>D15/$D$12</f>
-        <v>1.0326056463787794</v>
+        <f t="shared" si="3"/>
+        <v>1.0378848863983947</v>
       </c>
       <c r="K15" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1384492952767526</v>
       </c>
       <c r="L15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1373943384611491</v>
       </c>
       <c r="N15" s="14"/>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="D16" s="68">
         <f>'Employment calcs'!F11</f>
-        <v>13170467.925600002</v>
+        <v>13646318.438570727</v>
       </c>
       <c r="E16" s="65">
         <f>'Exergy calcs'!AO36</f>
@@ -5418,27 +5418,27 @@
         <v>4350231.965154781</v>
       </c>
       <c r="G16" s="65">
-        <f>A16-$A$12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H16" s="7">
-        <f>B16/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.0496023935123218</v>
       </c>
       <c r="I16" s="7">
-        <f>C16/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0470682860130298</v>
       </c>
       <c r="J16" s="7">
-        <f>D16/$D$12</f>
-        <v>1.0676674469765692</v>
+        <f t="shared" si="3"/>
+        <v>1.0625750901913893</v>
       </c>
       <c r="K16" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1811177098520949</v>
       </c>
       <c r="L16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1793376231829138</v>
       </c>
       <c r="N16" s="14"/>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="D17" s="68">
         <f>'Employment calcs'!F12</f>
-        <v>13276064.253800001</v>
+        <v>13968708.916287987</v>
       </c>
       <c r="E17" s="65">
         <f>'Exergy calcs'!AO37</f>
@@ -5479,27 +5479,27 @@
         <v>4502741.0579072516</v>
       </c>
       <c r="G17" s="65">
-        <f>A17-$A$12</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H17" s="7">
-        <f>B17/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.1241372070440647</v>
       </c>
       <c r="I17" s="7">
-        <f>C17/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0643931472693637</v>
       </c>
       <c r="J17" s="7">
-        <f>D17/$D$12</f>
-        <v>1.0762276410999878</v>
+        <f t="shared" si="3"/>
+        <v>1.0876781311675561</v>
       </c>
       <c r="K17" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2237451216322293</v>
       </c>
       <c r="L17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2206824784460704</v>
       </c>
       <c r="N17" s="14"/>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="D18" s="68">
         <f>'Employment calcs'!F13</f>
-        <v>14125906.439999999</v>
+        <v>14538561.904257836</v>
       </c>
       <c r="E18" s="65">
         <f>'Exergy calcs'!AO38</f>
@@ -5540,27 +5540,27 @@
         <v>5033142.1572858104</v>
       </c>
       <c r="G18" s="65">
-        <f>A18-$A$12</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H18" s="7">
-        <f>B18/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.1621832051719463</v>
       </c>
       <c r="I18" s="7">
-        <f>C18/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.09182283707338</v>
       </c>
       <c r="J18" s="7">
-        <f>D18/$D$12</f>
-        <v>1.1451203214814862</v>
+        <f t="shared" si="3"/>
+        <v>1.1320499221977611</v>
       </c>
       <c r="K18" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3683060315565108</v>
       </c>
       <c r="L18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3644729652258847</v>
       </c>
       <c r="N18" s="14"/>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="D19" s="68">
         <f>'Employment calcs'!F14</f>
-        <v>14874142.339199997</v>
+        <v>15247755.410027526</v>
       </c>
       <c r="E19" s="65">
         <f>'Exergy calcs'!AO39</f>
@@ -5601,27 +5601,27 @@
         <v>5214739.7744758623</v>
       </c>
       <c r="G19" s="65">
-        <f>A19-$A$12</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H19" s="7">
-        <f>B19/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.1940354652739504</v>
       </c>
       <c r="I19" s="7">
-        <f>C19/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.1206413040564089</v>
       </c>
       <c r="J19" s="7">
-        <f>D19/$D$12</f>
-        <v>1.2057762614790537</v>
+        <f t="shared" si="3"/>
+        <v>1.1872715086460475</v>
       </c>
       <c r="K19" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4185152398016532</v>
       </c>
       <c r="L19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4137036508417438</v>
       </c>
       <c r="N19" s="14"/>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="D20" s="68">
         <f>'Employment calcs'!F15</f>
-        <v>15388226.695800001</v>
+        <v>16046418.401242128</v>
       </c>
       <c r="E20" s="65">
         <f>'Exergy calcs'!AO40</f>
@@ -5649,27 +5649,27 @@
         <v>5496729.03809777</v>
       </c>
       <c r="G20" s="65">
-        <f>A20-$A$12</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H20" s="7">
-        <f>B20/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.2171307596077299</v>
       </c>
       <c r="I20" s="7">
-        <f>C20/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.1535537145767982</v>
       </c>
       <c r="J20" s="7">
-        <f>D20/$D$12</f>
-        <v>1.2474506450804785</v>
+        <f t="shared" si="3"/>
+        <v>1.2494596661144923</v>
       </c>
       <c r="K20" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4965058998303231</v>
       </c>
       <c r="L20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4901502749727695</v>
       </c>
       <c r="N20" s="14"/>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="D21" s="68">
         <f>'Employment calcs'!F16</f>
-        <v>16564277.866500001</v>
+        <v>16578313.246033829</v>
       </c>
       <c r="E21" s="65">
         <f>'Exergy calcs'!AO41</f>
@@ -5697,27 +5697,27 @@
         <v>5715303.0741459699</v>
       </c>
       <c r="G21" s="65">
-        <f>A21-$A$12</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H21" s="7">
-        <f>B21/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.2797242561828028</v>
       </c>
       <c r="I21" s="7">
-        <f>C21/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.1887396444944904</v>
       </c>
       <c r="J21" s="7">
-        <f>D21/$D$12</f>
-        <v>1.3427875426021263</v>
+        <f t="shared" si="3"/>
+        <v>1.2908758337952513</v>
       </c>
       <c r="K21" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5560989999636801</v>
       </c>
       <c r="L21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5494051805105273</v>
       </c>
       <c r="N21" s="14"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="D22" s="68">
         <f>'Employment calcs'!F17</f>
-        <v>17327731.398899999</v>
+        <v>17658842.568686318</v>
       </c>
       <c r="E22" s="65">
         <f>'Exergy calcs'!AO42</f>
@@ -5745,27 +5745,27 @@
         <v>6105252.9508735603</v>
       </c>
       <c r="G22" s="65">
-        <f>A22-$A$12</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H22" s="7">
-        <f>B22/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.3266846879948211</v>
       </c>
       <c r="I22" s="7">
-        <f>C22/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.2378857342019893</v>
       </c>
       <c r="J22" s="7">
-        <f>D22/$D$12</f>
-        <v>1.4046771040381612</v>
+        <f t="shared" si="3"/>
+        <v>1.3750116062118418</v>
       </c>
       <c r="K22" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.6635605320156388</v>
       </c>
       <c r="L22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.6551196721661519</v>
       </c>
       <c r="N22" s="14"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="D23" s="68">
         <f>'Employment calcs'!F18</f>
-        <v>18086977.934999999</v>
+        <v>18554394.923341576</v>
       </c>
       <c r="E23" s="65">
         <f>'Exergy calcs'!AO43</f>
@@ -5793,27 +5793,27 @@
         <v>6671030.2746684076</v>
       </c>
       <c r="G23" s="65">
-        <f>A23-$A$12</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <f>B23/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.4263968716374038</v>
       </c>
       <c r="I23" s="7">
-        <f>C23/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.2994879219282018</v>
       </c>
       <c r="J23" s="7">
-        <f>D23/$D$12</f>
-        <v>1.4662256242124556</v>
+        <f t="shared" si="3"/>
+        <v>1.4447440859500611</v>
       </c>
       <c r="K23" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.8190034559936956</v>
       </c>
       <c r="L23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.8085005699296726</v>
       </c>
       <c r="N23" s="14"/>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="D24" s="68">
         <f>'Employment calcs'!F19</f>
-        <v>19329521.379999999</v>
+        <v>19691907.558196358</v>
       </c>
       <c r="E24" s="65">
         <f>'Exergy calcs'!AO44</f>
@@ -5841,27 +5841,27 @@
         <v>7023301.7328926474</v>
       </c>
       <c r="G24" s="65">
-        <f>A24-$A$12</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H24" s="7">
-        <f>B24/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.5278761952252229</v>
       </c>
       <c r="I24" s="7">
-        <f>C24/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.3727713879728678</v>
       </c>
       <c r="J24" s="7">
-        <f>D24/$D$12</f>
-        <v>1.5669527354415114</v>
+        <f t="shared" si="3"/>
+        <v>1.5333168827828205</v>
       </c>
       <c r="K24" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.9151848972041365</v>
       </c>
       <c r="L24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9040005312156616</v>
       </c>
       <c r="N24" s="14"/>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="D25" s="68">
         <f>'Employment calcs'!F20</f>
-        <v>21122692.831799999</v>
+        <v>21207488.140646946</v>
       </c>
       <c r="E25" s="65">
         <f>'Exergy calcs'!AO45</f>
@@ -5889,27 +5889,27 @@
         <v>7295143.2807066031</v>
       </c>
       <c r="G25" s="65">
-        <f>A25-$A$12</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H25" s="7">
-        <f>B25/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.6055603670752083</v>
       </c>
       <c r="I25" s="7">
-        <f>C25/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.4523552910265691</v>
       </c>
       <c r="J25" s="7">
-        <f>D25/$D$12</f>
-        <v>1.7123166508885288</v>
+        <f t="shared" si="3"/>
+        <v>1.6513280651642879</v>
       </c>
       <c r="K25" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.988985776194522</v>
       </c>
       <c r="L25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9776961335304841</v>
       </c>
       <c r="N25" s="14"/>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="D26" s="68">
         <f>'Employment calcs'!F21</f>
-        <v>21672707.775600001</v>
+        <v>21751395.470930558</v>
       </c>
       <c r="E26" s="65">
         <f>'Exergy calcs'!AO46</f>
@@ -5937,27 +5937,27 @@
         <v>8326660.1909615118</v>
       </c>
       <c r="G26" s="65">
-        <f>A26-$A$12</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="H26" s="7">
-        <f>B26/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.6797889929926777</v>
       </c>
       <c r="I26" s="7">
-        <f>C26/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.5352797662135713</v>
       </c>
       <c r="J26" s="7">
-        <f>D26/$D$12</f>
-        <v>1.7569037569931252</v>
+        <f t="shared" si="3"/>
+        <v>1.6936795889934797</v>
       </c>
       <c r="K26" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.2734187837172928</v>
       </c>
       <c r="L26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2573379344636728</v>
       </c>
       <c r="N26" s="14"/>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="D27" s="68">
         <f>'Employment calcs'!F22</f>
-        <v>21703991.445</v>
+        <v>21921143.086037114</v>
       </c>
       <c r="E27" s="65">
         <f>'Exergy calcs'!AO47</f>
@@ -5985,27 +5985,27 @@
         <v>8711274.5129109267</v>
       </c>
       <c r="G27" s="65">
-        <f>A27-$A$12</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H27" s="7">
-        <f>B27/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.7787925710136561</v>
       </c>
       <c r="I27" s="7">
-        <f>C27/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.618542052065739</v>
       </c>
       <c r="J27" s="7">
-        <f>D27/$D$12</f>
-        <v>1.7594397758824338</v>
+        <f t="shared" si="3"/>
+        <v>1.7068970430814494</v>
       </c>
       <c r="K27" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.3782745936048397</v>
       </c>
       <c r="L27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3616059698059657</v>
       </c>
       <c r="N27" s="14"/>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="D28" s="68">
         <f>'Employment calcs'!F23</f>
-        <v>22259301.176800001</v>
+        <v>22145244.042203113</v>
       </c>
       <c r="E28" s="65">
         <f>'Exergy calcs'!AO48</f>
@@ -6033,27 +6033,27 @@
         <v>8920376.1666200329</v>
       </c>
       <c r="G28" s="65">
-        <f>A28-$A$12</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H28" s="7">
-        <f>B28/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.9179767122448801</v>
       </c>
       <c r="I28" s="7">
-        <f>C28/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.7074130673744605</v>
       </c>
       <c r="J28" s="7">
-        <f>D28/$D$12</f>
-        <v>1.8044561053690826</v>
+        <f t="shared" si="3"/>
+        <v>1.7243467380143345</v>
       </c>
       <c r="K28" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.4357701852027778</v>
       </c>
       <c r="L28" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.418292934837758</v>
       </c>
       <c r="N28" s="14"/>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="D29" s="68">
         <f>'Employment calcs'!F24</f>
-        <v>21426545.852400001</v>
+        <v>21460479.604391087</v>
       </c>
       <c r="E29" s="65">
         <f>'Exergy calcs'!AO49</f>
@@ -6081,27 +6081,27 @@
         <v>9246726.096394185</v>
       </c>
       <c r="G29" s="65">
-        <f>A29-$A$12</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H29" s="7">
-        <f>B29/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.9620939733529292</v>
       </c>
       <c r="I29" s="7">
-        <f>C29/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.8001715863696077</v>
       </c>
       <c r="J29" s="7">
-        <f>D29/$D$12</f>
-        <v>1.7369485759342249</v>
+        <f t="shared" si="3"/>
+        <v>1.671027329007184</v>
       </c>
       <c r="K29" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.5228589645233384</v>
       </c>
       <c r="L29" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.5067656309120383</v>
       </c>
       <c r="N29" s="14"/>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D30" s="68">
         <f>'Employment calcs'!F25</f>
-        <v>21963085.544399999</v>
+        <v>21603339.132454667</v>
       </c>
       <c r="E30" s="65">
         <f>'Exergy calcs'!AO50</f>
@@ -6129,27 +6129,27 @@
         <v>10213233.7835334</v>
       </c>
       <c r="G30" s="65">
-        <f>A30-$A$12</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H30" s="7">
-        <f>B30/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.9974105276050005</v>
       </c>
       <c r="I30" s="7">
-        <f>C30/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.8938657872865223</v>
       </c>
       <c r="J30" s="7">
-        <f>D30/$D$12</f>
-        <v>1.7804433072068904</v>
+        <f t="shared" si="3"/>
+        <v>1.6821511333211596</v>
       </c>
       <c r="K30" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.7902337269664645</v>
       </c>
       <c r="L30" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.7687835848208988</v>
       </c>
       <c r="N30" s="14"/>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="D31" s="68">
         <f>'Employment calcs'!F26</f>
-        <v>22783878.039999999</v>
+        <v>21726926.195958201</v>
       </c>
       <c r="E31" s="65">
         <f>'Exergy calcs'!AO51</f>
@@ -6177,27 +6177,27 @@
         <v>10281147.204245841</v>
       </c>
       <c r="G31" s="65">
-        <f>A31-$A$12</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="H31" s="7">
-        <f>B31/$B$12</f>
+        <f t="shared" si="1"/>
         <v>2.055533685011679</v>
       </c>
       <c r="I31" s="7">
-        <f>C31/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.9875921606477385</v>
       </c>
       <c r="J31" s="7">
-        <f>D31/$D$12</f>
-        <v>1.8469810667781668</v>
+        <f t="shared" si="3"/>
+        <v>1.6917742808198715</v>
       </c>
       <c r="K31" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.809955102096009</v>
       </c>
       <c r="L31" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.7871947529624541</v>
       </c>
       <c r="N31" s="14"/>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="D32" s="68">
         <f>'Employment calcs'!F27</f>
-        <v>23037968.492000002</v>
+        <v>22240352.419589296</v>
       </c>
       <c r="E32" s="65">
         <f>'Exergy calcs'!AO52</f>
@@ -6225,27 +6225,27 @@
         <v>11378934.419703057</v>
       </c>
       <c r="G32" s="65">
-        <f>A32-$A$12</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H32" s="7">
-        <f>B32/$B$12</f>
+        <f t="shared" si="1"/>
         <v>2.097105214812482</v>
       </c>
       <c r="I32" s="7">
-        <f>C32/$C$12</f>
+        <f t="shared" si="2"/>
         <v>2.0860746936915198</v>
       </c>
       <c r="J32" s="7">
-        <f>D32/$D$12</f>
-        <v>1.8675789761098966</v>
+        <f t="shared" si="3"/>
+        <v>1.7317523832170316</v>
       </c>
       <c r="K32" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.107350258445607</v>
       </c>
       <c r="L32" s="62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.0848022772986505</v>
       </c>
       <c r="N32" s="14"/>
@@ -6291,7 +6291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J22"/>
     </sheetView>
   </sheetViews>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="E3" s="67">
         <f>'Iran Workbook'!J13</f>
-        <v>0.9923206837799815</v>
+        <v>1.0033121086200276</v>
       </c>
       <c r="F3" s="67">
         <f>'Iran Workbook'!K13</f>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="E4" s="67">
         <f>'Iran Workbook'!J14</f>
-        <v>1.0258154818585306</v>
+        <v>1.0189020330444378</v>
       </c>
       <c r="F4" s="67">
         <f>'Iran Workbook'!K14</f>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="E5" s="67">
         <f>'Iran Workbook'!J15</f>
-        <v>1.0326056463787794</v>
+        <v>1.0378848863983947</v>
       </c>
       <c r="F5" s="67">
         <f>'Iran Workbook'!K15</f>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="E6" s="67">
         <f>'Iran Workbook'!J16</f>
-        <v>1.0676674469765692</v>
+        <v>1.0625750901913893</v>
       </c>
       <c r="F6" s="67">
         <f>'Iran Workbook'!K16</f>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="E7" s="67">
         <f>'Iran Workbook'!J17</f>
-        <v>1.0762276410999878</v>
+        <v>1.0876781311675561</v>
       </c>
       <c r="F7" s="67">
         <f>'Iran Workbook'!K17</f>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="E8" s="67">
         <f>'Iran Workbook'!J18</f>
-        <v>1.1451203214814862</v>
+        <v>1.1320499221977611</v>
       </c>
       <c r="F8" s="67">
         <f>'Iran Workbook'!K18</f>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="E9" s="67">
         <f>'Iran Workbook'!J19</f>
-        <v>1.2057762614790537</v>
+        <v>1.1872715086460475</v>
       </c>
       <c r="F9" s="67">
         <f>'Iran Workbook'!K19</f>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="E10" s="67">
         <f>'Iran Workbook'!J20</f>
-        <v>1.2474506450804785</v>
+        <v>1.2494596661144923</v>
       </c>
       <c r="F10" s="67">
         <f>'Iran Workbook'!K20</f>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="E11" s="67">
         <f>'Iran Workbook'!J21</f>
-        <v>1.3427875426021263</v>
+        <v>1.2908758337952513</v>
       </c>
       <c r="F11" s="67">
         <f>'Iran Workbook'!K21</f>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="E12" s="67">
         <f>'Iran Workbook'!J22</f>
-        <v>1.4046771040381612</v>
+        <v>1.3750116062118418</v>
       </c>
       <c r="F12" s="67">
         <f>'Iran Workbook'!K22</f>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="E13" s="67">
         <f>'Iran Workbook'!J23</f>
-        <v>1.4662256242124556</v>
+        <v>1.4447440859500611</v>
       </c>
       <c r="F13" s="67">
         <f>'Iran Workbook'!K23</f>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="E14" s="67">
         <f>'Iran Workbook'!J24</f>
-        <v>1.5669527354415114</v>
+        <v>1.5333168827828205</v>
       </c>
       <c r="F14" s="67">
         <f>'Iran Workbook'!K24</f>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="E15" s="67">
         <f>'Iran Workbook'!J25</f>
-        <v>1.7123166508885288</v>
+        <v>1.6513280651642879</v>
       </c>
       <c r="F15" s="67">
         <f>'Iran Workbook'!K25</f>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="E16" s="67">
         <f>'Iran Workbook'!J26</f>
-        <v>1.7569037569931252</v>
+        <v>1.6936795889934797</v>
       </c>
       <c r="F16" s="67">
         <f>'Iran Workbook'!K26</f>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="E17" s="67">
         <f>'Iran Workbook'!J27</f>
-        <v>1.7594397758824338</v>
+        <v>1.7068970430814494</v>
       </c>
       <c r="F17" s="67">
         <f>'Iran Workbook'!K27</f>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="E18" s="67">
         <f>'Iran Workbook'!J28</f>
-        <v>1.8044561053690826</v>
+        <v>1.7243467380143345</v>
       </c>
       <c r="F18" s="67">
         <f>'Iran Workbook'!K28</f>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="E19" s="67">
         <f>'Iran Workbook'!J29</f>
-        <v>1.7369485759342249</v>
+        <v>1.671027329007184</v>
       </c>
       <c r="F19" s="67">
         <f>'Iran Workbook'!K29</f>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="E20" s="67">
         <f>'Iran Workbook'!J30</f>
-        <v>1.7804433072068904</v>
+        <v>1.6821511333211596</v>
       </c>
       <c r="F20" s="67">
         <f>'Iran Workbook'!K30</f>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="E21" s="67">
         <f>'Iran Workbook'!J31</f>
-        <v>1.8469810667781668</v>
+        <v>1.6917742808198715</v>
       </c>
       <c r="F21" s="67">
         <f>'Iran Workbook'!K31</f>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="E22" s="67">
         <f>'Iran Workbook'!J32</f>
-        <v>1.8675789761098966</v>
+        <v>1.7317523832170316</v>
       </c>
       <c r="F22" s="67">
         <f>'Iran Workbook'!K32</f>
@@ -7170,8 +7170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7254,19 +7254,19 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="6"/>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="94" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7274,32 +7274,32 @@
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="6">
         <v>1991</v>
       </c>
       <c r="B7" s="9">
-        <v>40</v>
+        <v>40.599998474121101</v>
       </c>
       <c r="C7" s="9">
-        <v>45</v>
+        <v>44.960899353027301</v>
       </c>
       <c r="D7" s="9">
-        <v>56071545</v>
+        <v>57472293</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" ref="E7:E27" si="0">D7*(1-C7/100)</f>
-        <v>30839349.750000004</v>
+        <v>31632233.188393049</v>
       </c>
       <c r="F7" s="5">
         <f>E7*B7/100</f>
-        <v>12335739.900000002</v>
+        <v>12842686.191818006</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -7307,21 +7307,21 @@
         <v>1992</v>
       </c>
       <c r="B8" s="9">
-        <v>39</v>
+        <v>39.799999237060497</v>
       </c>
       <c r="C8" s="9">
-        <v>45</v>
+        <v>44.475486755371101</v>
       </c>
       <c r="D8" s="9">
-        <v>57067645</v>
+        <v>58307457</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>31387204.750000004</v>
+        <v>32374931.684571303</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F27" si="1">E8*B8/100</f>
-        <v>12241009.852500003</v>
+        <v>12885222.563458236</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -7329,21 +7329,21 @@
         <v>1993</v>
       </c>
       <c r="B9" s="9">
-        <v>39</v>
+        <v>39.5</v>
       </c>
       <c r="C9" s="9">
-        <v>44</v>
+        <v>43.834640502929702</v>
       </c>
       <c r="D9" s="9">
-        <v>57940444</v>
+        <v>58982430</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>32446648.640000004</v>
+        <v>33127693.84960784</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>12654192.969600003</v>
+        <v>13085439.070595097</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -7351,21 +7351,21 @@
         <v>1994</v>
       </c>
       <c r="B10" s="9">
-        <v>38</v>
+        <v>39.200000762939503</v>
       </c>
       <c r="C10" s="9">
-        <v>43</v>
+        <v>43.008102416992202</v>
       </c>
       <c r="D10" s="9">
-        <v>58808655</v>
+        <v>59663107</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
-        <v>33520933.350000005</v>
+        <v>34003136.836280361</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>12737954.673000002</v>
+        <v>13329229.899245264</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -7373,21 +7373,21 @@
         <v>1995</v>
       </c>
       <c r="B11" s="9">
-        <v>38</v>
+        <v>38.900001525878899</v>
       </c>
       <c r="C11" s="9">
-        <v>42</v>
+        <v>41.985340118408203</v>
       </c>
       <c r="D11" s="9">
-        <v>59757114</v>
+        <v>60468352</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="0"/>
-        <v>34659126.120000005</v>
+        <v>35080508.748803712</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>13170467.925600002</v>
+        <v>13646318.438570727</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -7395,21 +7395,21 @@
         <v>1996</v>
       </c>
       <c r="B12" s="9">
-        <v>37</v>
+        <v>38.400001525878899</v>
       </c>
       <c r="C12" s="9">
-        <v>41</v>
+        <v>40.793750762939503</v>
       </c>
       <c r="D12" s="9">
-        <v>60815686</v>
+        <v>61440887</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="0"/>
-        <v>35881254.740000002</v>
+        <v>36376844.690680705</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>13276064.253800001</v>
+        <v>13968708.916287987</v>
       </c>
     </row>
     <row r="13" spans="1:53">
@@ -7417,21 +7417,21 @@
         <v>1997</v>
       </c>
       <c r="B13" s="9">
-        <v>38</v>
+        <v>38.400001525878899</v>
       </c>
       <c r="C13" s="9">
-        <v>40</v>
+        <v>39.463855743408203</v>
       </c>
       <c r="D13" s="9">
-        <v>61955730</v>
+        <v>62542531</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="0"/>
-        <v>37173438</v>
+        <v>37860836.787883639</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>14125906.439999999</v>
+        <v>14538561.904257836</v>
       </c>
     </row>
     <row r="14" spans="1:53">
@@ -7439,21 +7439,21 @@
         <v>1998</v>
       </c>
       <c r="B14" s="9">
-        <v>38</v>
+        <v>38.599998474121101</v>
       </c>
       <c r="C14" s="9">
-        <v>38</v>
+        <v>38.000545501708999</v>
       </c>
       <c r="D14" s="9">
-        <v>63133032</v>
+        <v>63713397</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>39142479.839999996</v>
+        <v>39501958.58233051</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>14874142.339199997</v>
+        <v>15247755.410027526</v>
       </c>
     </row>
     <row r="15" spans="1:53">
@@ -7461,21 +7461,21 @@
         <v>1999</v>
       </c>
       <c r="B15" s="9">
-        <v>38</v>
+        <v>38.900001525878899</v>
       </c>
       <c r="C15" s="9">
-        <v>37</v>
+        <v>36.399593353271499</v>
       </c>
       <c r="D15" s="9">
-        <v>64278307</v>
+        <v>64858754</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="0"/>
-        <v>40495333.410000004</v>
+        <v>41250431.290001288</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>15388226.695800001</v>
+        <v>16046418.401242128</v>
       </c>
     </row>
     <row r="16" spans="1:53">
@@ -7483,21 +7483,21 @@
         <v>2000</v>
       </c>
       <c r="B16" s="9">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="C16" s="9">
-        <v>35</v>
+        <v>34.668689727783203</v>
       </c>
       <c r="D16" s="9">
-        <v>65342319</v>
+        <v>65911052</v>
       </c>
       <c r="E16" s="10">
         <f t="shared" si="0"/>
-        <v>42472507.350000001</v>
+        <v>43060553.88580215</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>16564277.866500001</v>
+        <v>16578313.246033829</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7505,21 +7505,21 @@
         <v>2001</v>
       </c>
       <c r="B17" s="9">
-        <v>39</v>
+        <v>39.299999237060497</v>
       </c>
       <c r="C17" s="9">
-        <v>33</v>
+        <v>32.792343139648402</v>
       </c>
       <c r="D17" s="9">
-        <v>66313553</v>
+        <v>66857624</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="0"/>
-        <v>44430080.509999998</v>
+        <v>44933442.522904076</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>17327731.398899999</v>
+        <v>17658842.568686318</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7527,21 +7527,21 @@
         <v>2002</v>
       </c>
       <c r="B18" s="9">
-        <v>39</v>
+        <v>39.599998474121101</v>
       </c>
       <c r="C18" s="9">
-        <v>31</v>
+        <v>30.818809509277301</v>
       </c>
       <c r="D18" s="9">
-        <v>67212850</v>
+        <v>67727274</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="0"/>
-        <v>46376866.5</v>
+        <v>46854534.440113708</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>18086977.934999999</v>
+        <v>18554394.923341576</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7549,21 +7549,21 @@
         <v>2003</v>
       </c>
       <c r="B19" s="9">
-        <v>40</v>
+        <v>40.400001525878899</v>
       </c>
       <c r="C19" s="9">
-        <v>29</v>
+        <v>28.888111114501999</v>
       </c>
       <c r="D19" s="9">
-        <v>68061695</v>
+        <v>68543171</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="0"/>
-        <v>48323803.449999996</v>
+        <v>48742343.600116886</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>19329521.379999999</v>
+        <v>19691907.558196358</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7574,18 +7574,18 @@
         <v>42</v>
       </c>
       <c r="C20" s="9">
-        <v>27</v>
+        <v>27.181322097778299</v>
       </c>
       <c r="D20" s="9">
-        <v>68893323</v>
+        <v>69342126</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="0"/>
-        <v>50292125.789999999</v>
+        <v>50494019.382492729</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>21122692.831799999</v>
+        <v>21207488.140646946</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7593,21 +7593,21 @@
         <v>2005</v>
       </c>
       <c r="B21" s="9">
-        <v>42</v>
+        <v>41.799999237060497</v>
       </c>
       <c r="C21" s="9">
-        <v>26</v>
+        <v>25.823144912719702</v>
       </c>
       <c r="D21" s="9">
-        <v>69732007</v>
+        <v>70152384</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="0"/>
-        <v>51601685.18</v>
+        <v>52036832.219952404</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>21672707.775600001</v>
+        <v>21751395.470930558</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7615,21 +7615,21 @@
         <v>2006</v>
       </c>
       <c r="B22" s="9">
-        <v>41</v>
+        <v>41.099998474121101</v>
       </c>
       <c r="C22" s="9">
-        <v>25</v>
+        <v>24.853925704956101</v>
       </c>
       <c r="D22" s="9">
-        <v>70582086</v>
+        <v>70976584</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="0"/>
-        <v>52936564.5</v>
+        <v>53336116.544724241</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>21703991.445</v>
+        <v>21921143.086037114</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7637,21 +7637,21 @@
         <v>2007</v>
       </c>
       <c r="B23" s="9">
-        <v>41</v>
+        <v>40.700000762939503</v>
       </c>
       <c r="C23" s="9">
-        <v>24</v>
+        <v>24.2285060882568</v>
       </c>
       <c r="D23" s="9">
-        <v>71435498</v>
+        <v>71809219</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="0"/>
-        <v>54290978.480000004</v>
+        <v>54410918.002655342</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>22259301.176800001</v>
+        <v>22145244.042203113</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7659,21 +7659,21 @@
         <v>2008</v>
       </c>
       <c r="B24" s="9">
-        <v>39</v>
+        <v>38.799999237060497</v>
       </c>
       <c r="C24" s="9">
-        <v>24</v>
+        <v>23.878557205200199</v>
       </c>
       <c r="D24" s="9">
-        <v>72289291</v>
+        <v>72660887</v>
       </c>
       <c r="E24" s="10">
         <f t="shared" si="0"/>
-        <v>54939861.160000004</v>
+        <v>55310515.531899124</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>21426545.852400001</v>
+        <v>21460479.604391087</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7681,21 +7681,21 @@
         <v>2009</v>
       </c>
       <c r="B25" s="9">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="C25" s="9">
-        <v>23</v>
+        <v>23.7009582519531</v>
       </c>
       <c r="D25" s="9">
-        <v>73137148</v>
+        <v>73542954</v>
       </c>
       <c r="E25" s="10">
         <f t="shared" si="0"/>
-        <v>56315603.960000001</v>
+        <v>56112569.175206929</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>21963085.544399999</v>
+        <v>21603339.132454667</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7703,21 +7703,21 @@
         <v>2010</v>
       </c>
       <c r="B26" s="9">
-        <v>40</v>
+        <v>38.200000762939503</v>
       </c>
       <c r="C26" s="9">
-        <v>23</v>
+        <v>23.616704940795898</v>
       </c>
       <c r="D26" s="9">
-        <v>73973630</v>
+        <v>74462314</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="0"/>
-        <v>56959695.100000001</v>
+        <v>56876769.010531045</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>22783878.039999999</v>
+        <v>21726926.195958201</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7725,21 +7725,21 @@
         <v>2011</v>
       </c>
       <c r="B27" s="9">
-        <v>40</v>
+        <v>38.599998474121101</v>
       </c>
       <c r="C27" s="9">
-        <v>23</v>
+        <v>23.608827590942401</v>
       </c>
       <c r="D27" s="9">
-        <v>74798599</v>
+        <v>75424285</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="0"/>
-        <v>57594921.230000004</v>
+        <v>57617495.592648968</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>23037968.492000002</v>
+        <v>22240352.419589296</v>
       </c>
     </row>
   </sheetData>
@@ -8118,172 +8118,172 @@
       </c>
     </row>
     <row r="30" spans="1:41" ht="15" customHeight="1">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="97" t="s">
+      <c r="E30" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="97" t="s">
+      <c r="F30" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="97" t="s">
+      <c r="G30" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="97" t="s">
+      <c r="H30" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="97" t="s">
+      <c r="I30" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="97" t="s">
+      <c r="J30" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="K30" s="97" t="s">
+      <c r="K30" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="L30" s="97" t="s">
+      <c r="L30" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="101" t="s">
+      <c r="M30" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="N30" s="95" t="s">
+      <c r="N30" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="O30" s="99" t="s">
+      <c r="O30" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="P30" s="97" t="s">
+      <c r="P30" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="Q30" s="97" t="s">
+      <c r="Q30" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="R30" s="97" t="s">
+      <c r="R30" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="S30" s="97" t="s">
+      <c r="S30" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="T30" s="95" t="s">
+      <c r="T30" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="U30" s="99" t="s">
+      <c r="U30" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="V30" s="97" t="s">
+      <c r="V30" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="W30" s="97" t="s">
+      <c r="W30" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="X30" s="97" t="s">
+      <c r="X30" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="Y30" s="97" t="s">
+      <c r="Y30" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="Z30" s="97" t="s">
+      <c r="Z30" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="AA30" s="97" t="s">
+      <c r="AA30" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="AB30" s="97" t="s">
+      <c r="AB30" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="AC30" s="97" t="s">
+      <c r="AC30" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AD30" s="101" t="s">
+      <c r="AD30" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="AE30" s="95" t="s">
+      <c r="AE30" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="AF30" s="99" t="s">
+      <c r="AF30" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="AG30" s="97" t="s">
+      <c r="AG30" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="AH30" s="97" t="s">
+      <c r="AH30" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="AI30" s="97" t="s">
+      <c r="AI30" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="AJ30" s="97" t="s">
+      <c r="AJ30" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="AK30" s="97" t="s">
+      <c r="AK30" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="AL30" s="97" t="s">
+      <c r="AL30" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="AM30" s="97" t="s">
+      <c r="AM30" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="AN30" s="97" t="s">
+      <c r="AN30" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="AO30" s="101" t="s">
+      <c r="AO30" s="98" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" s="96"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="98"/>
-      <c r="AB31" s="98"/>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="103"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="100"/>
-      <c r="AG31" s="98"/>
-      <c r="AH31" s="98"/>
-      <c r="AI31" s="98"/>
-      <c r="AJ31" s="98"/>
-      <c r="AK31" s="98"/>
-      <c r="AL31" s="98"/>
-      <c r="AM31" s="98"/>
-      <c r="AN31" s="98"/>
-      <c r="AO31" s="103"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="97"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="97"/>
+      <c r="Z31" s="97"/>
+      <c r="AA31" s="97"/>
+      <c r="AB31" s="97"/>
+      <c r="AC31" s="97"/>
+      <c r="AD31" s="99"/>
+      <c r="AE31" s="103"/>
+      <c r="AF31" s="101"/>
+      <c r="AG31" s="97"/>
+      <c r="AH31" s="97"/>
+      <c r="AI31" s="97"/>
+      <c r="AJ31" s="97"/>
+      <c r="AK31" s="97"/>
+      <c r="AL31" s="97"/>
+      <c r="AM31" s="97"/>
+      <c r="AN31" s="97"/>
+      <c r="AO31" s="99"/>
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="38">
@@ -11323,7 +11323,7 @@
         <f t="shared" si="7"/>
         <v>15452.226012217005</v>
       </c>
-      <c r="AD52" s="104">
+      <c r="AD52" s="92">
         <f t="shared" si="18"/>
         <v>11378934.419703057</v>
       </c>
@@ -11367,7 +11367,7 @@
         <f t="shared" si="15"/>
         <v>107307.12508484031</v>
       </c>
-      <c r="AO52" s="104">
+      <c r="AO52" s="92">
         <f t="shared" si="21"/>
         <v>10799926.995566051</v>
       </c>
@@ -11769,23 +11769,18 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="AM30:AM31"/>
-    <mergeCell ref="AN30:AN31"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AL30:AL31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="X30:X31"/>
     <mergeCell ref="N30:N31"/>
@@ -11798,18 +11793,23 @@
     <mergeCell ref="W30:W31"/>
     <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="R30:R31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AM30:AM31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AL30:AL31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
